--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.323753702862393</v>
+        <v>7.323753702862447</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.2879821885126</v>
+        <v>18.28798218851277</v>
       </c>
       <c r="E2">
-        <v>30.67431176057021</v>
+        <v>30.67431176057048</v>
       </c>
       <c r="F2">
-        <v>90.99446116239666</v>
+        <v>90.99446116239768</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.93392932395604</v>
+        <v>16.93392932395622</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>81.6934173529385</v>
+        <v>81.69341735293915</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.931849616458067</v>
+        <v>6.931849616458075</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.4033320151998</v>
+        <v>15.40333201519993</v>
       </c>
       <c r="E3">
-        <v>27.51602008711944</v>
+        <v>27.51602008711953</v>
       </c>
       <c r="F3">
-        <v>75.82222397729363</v>
+        <v>75.82222397729379</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.17060849919455</v>
+        <v>15.17060849919458</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>72.52927894210124</v>
+        <v>72.52927894210139</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.692475411861927</v>
+        <v>6.692475411861973</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.02199837671364</v>
+        <v>14.02199837671376</v>
       </c>
       <c r="E4">
-        <v>25.82029696897742</v>
+        <v>25.82029696897757</v>
       </c>
       <c r="F4">
-        <v>68.65335136336839</v>
+        <v>68.65335136336888</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.20867155231732</v>
+        <v>14.20867155231741</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>67.6827383859937</v>
+        <v>67.68273838599403</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.594558894191621</v>
+        <v>6.594558894191513</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.5013676154923</v>
+        <v>13.50136761549228</v>
       </c>
       <c r="E5">
         <v>25.15056231952973</v>
       </c>
       <c r="F5">
-        <v>65.97671794725663</v>
+        <v>65.97671794725605</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.82728044246655</v>
+        <v>13.82728044246664</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>65.78021303329986</v>
+        <v>65.78021303329987</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.578269641862287</v>
+        <v>6.578269641862421</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.41672381539299</v>
+        <v>13.41672381539305</v>
       </c>
       <c r="E6">
-        <v>25.04011107786713</v>
+        <v>25.04011107786716</v>
       </c>
       <c r="F6">
-        <v>65.54309539845241</v>
+        <v>65.54309539845272</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.76431292705644</v>
+        <v>13.7643129270564</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.69115677597151</v>
+        <v>6.691156775971487</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.01484248120766</v>
+        <v>14.01484248120769</v>
       </c>
       <c r="E7">
-        <v>25.81120439611513</v>
+        <v>25.81120439611507</v>
       </c>
       <c r="F7">
-        <v>68.61645658902636</v>
+        <v>68.61645658902621</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E8">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F8">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E9">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F9">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E10">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F10">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E11">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F11">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E12">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F12">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E13">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F13">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E14">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F14">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E15">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F15">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E16">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F16">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E17">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F17">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E18">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F18">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E19">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F19">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E20">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F20">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E21">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F21">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E22">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F22">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E23">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F23">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E24">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F24">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.187572008809067</v>
+        <v>7.187572008808954</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.14964777374558</v>
+        <v>17.1496477737456</v>
       </c>
       <c r="E25">
-        <v>29.48752991750061</v>
+        <v>29.4875299175009</v>
       </c>
       <c r="F25">
-        <v>84.98555094077855</v>
+        <v>84.98555094077808</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.27926639158504</v>
+        <v>16.27926639158535</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>78.23378049257849</v>
+        <v>78.23378049257902</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.323753702862447</v>
+        <v>7.323753702862393</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.28798218851277</v>
+        <v>18.2879821885126</v>
       </c>
       <c r="E2">
-        <v>30.67431176057048</v>
+        <v>30.67431176057021</v>
       </c>
       <c r="F2">
-        <v>90.99446116239768</v>
+        <v>90.99446116239666</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -433,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.93392932395622</v>
+        <v>16.93392932395604</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -442,7 +442,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>81.69341735293915</v>
+        <v>81.6934173529385</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.931849616458075</v>
+        <v>6.931849616458067</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.40333201519993</v>
+        <v>15.4033320151998</v>
       </c>
       <c r="E3">
-        <v>27.51602008711953</v>
+        <v>27.51602008711944</v>
       </c>
       <c r="F3">
-        <v>75.82222397729379</v>
+        <v>75.82222397729363</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -471,7 +471,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.17060849919458</v>
+        <v>15.17060849919455</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -480,7 +480,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>72.52927894210139</v>
+        <v>72.52927894210124</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.692475411861973</v>
+        <v>6.692475411861927</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.02199837671376</v>
+        <v>14.02199837671364</v>
       </c>
       <c r="E4">
-        <v>25.82029696897757</v>
+        <v>25.82029696897742</v>
       </c>
       <c r="F4">
-        <v>68.65335136336888</v>
+        <v>68.65335136336839</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -509,7 +509,7 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.20867155231741</v>
+        <v>14.20867155231732</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>67.68273838599403</v>
+        <v>67.6827383859937</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.594558894191513</v>
+        <v>6.594558894191621</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.50136761549228</v>
+        <v>13.5013676154923</v>
       </c>
       <c r="E5">
         <v>25.15056231952973</v>
       </c>
       <c r="F5">
-        <v>65.97671794725605</v>
+        <v>65.97671794725663</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -547,7 +547,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.82728044246664</v>
+        <v>13.82728044246655</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -556,7 +556,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>65.78021303329987</v>
+        <v>65.78021303329986</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.578269641862421</v>
+        <v>6.578269641862287</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.41672381539305</v>
+        <v>13.41672381539299</v>
       </c>
       <c r="E6">
-        <v>25.04011107786716</v>
+        <v>25.04011107786713</v>
       </c>
       <c r="F6">
-        <v>65.54309539845272</v>
+        <v>65.54309539845241</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -585,7 +585,7 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.7643129270564</v>
+        <v>13.76431292705644</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.691156775971487</v>
+        <v>6.69115677597151</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.01484248120769</v>
+        <v>14.01484248120766</v>
       </c>
       <c r="E7">
-        <v>25.81120439611507</v>
+        <v>25.81120439611513</v>
       </c>
       <c r="F7">
-        <v>68.61645658902621</v>
+        <v>68.61645658902636</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E8">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F8">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E9">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F9">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E10">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F10">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E11">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F11">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E12">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F12">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -822,7 +822,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E13">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F13">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E14">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F14">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E15">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F15">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E16">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F16">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E17">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F17">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E18">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F18">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E19">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F19">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1088,7 +1088,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E20">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F20">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1126,7 +1126,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E21">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F21">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E22">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F22">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E23">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F23">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E24">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F24">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1269,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.187572008808954</v>
+        <v>7.187572008809067</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.1496477737456</v>
+        <v>17.14964777374558</v>
       </c>
       <c r="E25">
-        <v>29.4875299175009</v>
+        <v>29.48752991750061</v>
       </c>
       <c r="F25">
-        <v>84.98555094077808</v>
+        <v>84.98555094077855</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.27926639158535</v>
+        <v>16.27926639158504</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>78.23378049257902</v>
+        <v>78.23378049257849</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,917 +406,992 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.323753702862393</v>
+        <v>7.31986281399251</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>18.2879821885126</v>
+        <v>17.83688443897694</v>
       </c>
       <c r="E2">
-        <v>30.67431176057021</v>
+        <v>30.4397845569587</v>
       </c>
       <c r="F2">
-        <v>90.99446116239666</v>
+        <v>88.97027302280726</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1.639577530147786</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>16.93392932395604</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>16.85025855758113</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>81.6934173529385</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>80.93138429750773</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.931849616458067</v>
+        <v>6.929626577935326</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.4033320151998</v>
+        <v>15.08064596810015</v>
       </c>
       <c r="E3">
-        <v>27.51602008711944</v>
+        <v>27.33097552146684</v>
       </c>
       <c r="F3">
-        <v>75.82222397729363</v>
+        <v>74.52077141220975</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1.748699646718468</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.17060849919455</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>15.12573151759638</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>72.52927894210124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>72.03498862504128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.692475411861927</v>
+        <v>6.690804559550294</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>14.02199837671364</v>
+        <v>13.73719775039408</v>
       </c>
       <c r="E4">
-        <v>25.82029696897742</v>
+        <v>25.6323715370961</v>
       </c>
       <c r="F4">
-        <v>68.65335136336839</v>
+        <v>67.58406050019963</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1.800158932512374</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>14.20867155231732</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>14.17451428728917</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>67.6827383859937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>67.2637182503305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.594558894191621</v>
+        <v>6.593077215803146</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.5013676154923</v>
+        <v>13.22896320407546</v>
       </c>
       <c r="E5">
-        <v>25.15056231952973</v>
+        <v>24.9677560884049</v>
       </c>
       <c r="F5">
-        <v>65.97671794725663</v>
+        <v>64.98724841390279</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.819293508429321</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>13.82728044246655</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>13.79646255594031</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>65.78021303329986</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>65.38493306046135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.578269641862287</v>
+        <v>6.57681800014926</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.41672381539299</v>
+        <v>13.14626215990235</v>
       </c>
       <c r="E6">
-        <v>25.04011107786713</v>
+        <v>24.85805645216225</v>
       </c>
       <c r="F6">
-        <v>65.54309539845241</v>
+        <v>64.56635239012309</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1.822389085492554</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>13.76431292705644</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>13.73400884896482</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>65.4669889793599</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>65.07537789204824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.69115677597151</v>
+        <v>6.689488580231886</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>14.01484248120766</v>
+        <v>13.73021791289568</v>
       </c>
       <c r="E7">
-        <v>25.81120439611513</v>
+        <v>25.62335534901768</v>
       </c>
       <c r="F7">
-        <v>68.61645658902636</v>
+        <v>67.54828367714336</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1.800422992702059</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>14.20349864031174</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>14.16938949457253</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>67.65686958479303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>67.2381903353554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E8">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F8">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E9">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F9">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E10">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F10">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E11">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F11">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E12">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F12">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E13">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F13">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E14">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F14">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E15">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F15">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E16">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F16">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E17">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F17">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E18">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F18">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E19">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F19">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E20">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F20">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E21">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F21">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E22">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F22">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E23">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F23">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E24">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F24">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>78.23378049257849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>77.60390334807057</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.187572008809067</v>
+        <v>7.184467606426745</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>17.14964777374558</v>
+        <v>16.76135209267746</v>
       </c>
       <c r="E25">
-        <v>29.48752991750061</v>
+        <v>29.29110992567431</v>
       </c>
       <c r="F25">
-        <v>84.98555094077855</v>
+        <v>83.30732529051592</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.682676859437082</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>16.27926639158504</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>16.21480309438332</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>78.23378049257849</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>77.60390334807057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.31986281399251</v>
+        <v>24.04072485670046</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>17.83688443897694</v>
+        <v>2.607692431173026</v>
       </c>
       <c r="E2">
-        <v>30.4397845569587</v>
+        <v>44.25365432434302</v>
       </c>
       <c r="F2">
-        <v>88.97027302280726</v>
+        <v>36.41369216242109</v>
       </c>
       <c r="G2">
-        <v>1.639577530147786</v>
+        <v>1.973595380043158</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,39 +445,45 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>16.85025855758113</v>
+        <v>0</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>17.89246046665375</v>
       </c>
       <c r="M2">
-        <v>80.93138429750773</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.12152015610375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.929626577935326</v>
+        <v>22.50142446571051</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>15.08064596810015</v>
+        <v>2.283545227788546</v>
       </c>
       <c r="E3">
-        <v>27.33097552146684</v>
+        <v>41.41855854419866</v>
       </c>
       <c r="F3">
-        <v>74.52077141220975</v>
+        <v>33.5088185399614</v>
       </c>
       <c r="G3">
-        <v>1.748699646718468</v>
+        <v>1.992042002932533</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -480,39 +492,45 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>15.12573151759638</v>
+        <v>0</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>16.64313217877417</v>
       </c>
       <c r="M3">
-        <v>72.03498862504128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>25.804992514941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.690804559550294</v>
+        <v>21.52025945446243</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>13.73719775039408</v>
+        <v>2.170774603268979</v>
       </c>
       <c r="E4">
-        <v>25.6323715370961</v>
+        <v>39.60293723093455</v>
       </c>
       <c r="F4">
-        <v>67.58406050019963</v>
+        <v>31.76149282745718</v>
       </c>
       <c r="G4">
-        <v>1.800158932512374</v>
+        <v>2.003439093787289</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -521,39 +539,45 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>14.17451428728917</v>
+        <v>0</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.84022980264008</v>
       </c>
       <c r="M4">
-        <v>67.2637182503305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>24.44436364760677</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.593077215803146</v>
+        <v>21.1113347383449</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>13.22896320407546</v>
+        <v>2.201351480207924</v>
       </c>
       <c r="E5">
-        <v>24.9677560884049</v>
+        <v>38.84393963500388</v>
       </c>
       <c r="F5">
-        <v>64.98724841390279</v>
+        <v>31.10930784298053</v>
       </c>
       <c r="G5">
-        <v>1.819293508429321</v>
+        <v>2.00811183085457</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -562,39 +586,45 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>13.79646255594031</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.50378496600169</v>
       </c>
       <c r="M5">
-        <v>65.38493306046135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>23.97495042269631</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.57681800014926</v>
+        <v>21.042884682867</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>13.14626215990235</v>
+        <v>2.206738644191092</v>
       </c>
       <c r="E6">
-        <v>24.85805645216225</v>
+        <v>38.71674814769452</v>
       </c>
       <c r="F6">
-        <v>64.56635239012309</v>
+        <v>31.0011583485315</v>
       </c>
       <c r="G6">
-        <v>1.822389085492554</v>
+        <v>2.008889727483911</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -603,39 +633,45 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>13.73400884896482</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.44735285362159</v>
       </c>
       <c r="M6">
-        <v>65.07537789204824</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>23.89733917741453</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.689488580231886</v>
+        <v>21.51478134640664</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>13.73021791289568</v>
+        <v>2.171165451008873</v>
       </c>
       <c r="E7">
-        <v>25.62335534901768</v>
+        <v>39.59277881502717</v>
       </c>
       <c r="F7">
-        <v>67.54828367714336</v>
+        <v>31.75268753534538</v>
       </c>
       <c r="G7">
-        <v>1.800422992702059</v>
+        <v>2.003501984359139</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -644,39 +680,45 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>14.16938949457253</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.83573017264283</v>
       </c>
       <c r="M7">
-        <v>67.2381903353554</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>24.43801060155409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.184467606426745</v>
+        <v>23.51740537809139</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>16.76135209267746</v>
+        <v>2.495553628910423</v>
       </c>
       <c r="E8">
-        <v>29.29110992567431</v>
+        <v>43.29143029702877</v>
       </c>
       <c r="F8">
-        <v>83.30732529051592</v>
+        <v>35.41466476474064</v>
       </c>
       <c r="G8">
-        <v>1.682676859437082</v>
+        <v>1.979947900529487</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -685,39 +727,45 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>17.46896200838189</v>
       </c>
       <c r="M8">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.32497465894868</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.184467606426745</v>
+        <v>27.35980072140678</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.76135209267746</v>
+        <v>3.320948611889987</v>
       </c>
       <c r="E9">
-        <v>29.29110992567431</v>
+        <v>49.97169161091561</v>
       </c>
       <c r="F9">
-        <v>83.30732529051592</v>
+        <v>42.62594262501683</v>
       </c>
       <c r="G9">
-        <v>1.682676859437082</v>
+        <v>1.933750610146948</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -726,39 +774,45 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>20.40105864109252</v>
       </c>
       <c r="M9">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>33.07404755932463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>7.184467606426745</v>
+        <v>30.06889815583383</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>16.76135209267746</v>
+        <v>3.957562746966329</v>
       </c>
       <c r="E10">
-        <v>29.29110992567431</v>
+        <v>54.5736174931246</v>
       </c>
       <c r="F10">
-        <v>83.30732529051592</v>
+        <v>47.97408621336743</v>
       </c>
       <c r="G10">
-        <v>1.682676859437082</v>
+        <v>1.898813063758844</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -767,39 +821,45 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>22.41322772138988</v>
       </c>
       <c r="M10">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>37.34030524102113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>7.184467606426745</v>
+        <v>31.26622323740546</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>16.76135209267746</v>
+        <v>4.259589607032788</v>
       </c>
       <c r="E11">
-        <v>29.29110992567431</v>
+        <v>56.61510302426866</v>
       </c>
       <c r="F11">
-        <v>83.30732529051592</v>
+        <v>50.45081311215414</v>
       </c>
       <c r="G11">
-        <v>1.682676859437082</v>
+        <v>1.882401506723312</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -808,39 +868,45 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>23.30451026046807</v>
       </c>
       <c r="M11">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>39.31766767442915</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>7.184467606426745</v>
+        <v>31.7154086564072</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>16.76135209267746</v>
+        <v>4.376425443333882</v>
       </c>
       <c r="E12">
-        <v>29.29110992567431</v>
+        <v>57.38236950411647</v>
       </c>
       <c r="F12">
-        <v>83.30732529051592</v>
+        <v>51.39891712981567</v>
       </c>
       <c r="G12">
-        <v>1.682676859437082</v>
+        <v>1.876078290964519</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -849,39 +915,45 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>23.63929333103956</v>
       </c>
       <c r="M12">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>40.07495140582661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>7.184467606426745</v>
+        <v>31.61884056772851</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>16.76135209267746</v>
+        <v>4.351140104814</v>
       </c>
       <c r="E13">
-        <v>29.29110992567431</v>
+        <v>57.21735073437019</v>
       </c>
       <c r="F13">
-        <v>83.30732529051592</v>
+        <v>51.19419534310384</v>
       </c>
       <c r="G13">
-        <v>1.682676859437082</v>
+        <v>1.877445582608113</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -890,39 +962,45 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>23.56729928068861</v>
       </c>
       <c r="M13">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>39.91141620744926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>7.184467606426745</v>
+        <v>31.30325698884899</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>16.76135209267746</v>
+        <v>4.269147746707318</v>
       </c>
       <c r="E14">
-        <v>29.29110992567431</v>
+        <v>56.6783313421847</v>
       </c>
       <c r="F14">
-        <v>83.30732529051592</v>
+        <v>50.52858242412158</v>
       </c>
       <c r="G14">
-        <v>1.682676859437082</v>
+        <v>1.88188369643099</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -931,39 +1009,45 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>23.33210281279936</v>
       </c>
       <c r="M14">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>39.37977735333568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>7.184467606426745</v>
+        <v>31.10943203740434</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>16.76135209267746</v>
+        <v>4.219269630658038</v>
       </c>
       <c r="E15">
-        <v>29.29110992567431</v>
+        <v>56.3474692937783</v>
       </c>
       <c r="F15">
-        <v>83.30732529051592</v>
+        <v>50.12234386480362</v>
       </c>
       <c r="G15">
-        <v>1.682676859437082</v>
+        <v>1.884586863664685</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -972,39 +1056,45 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>23.18770816869599</v>
       </c>
       <c r="M15">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>39.05535326903774</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>7.184467606426745</v>
+        <v>29.99001069110395</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>16.76135209267746</v>
+        <v>3.938128189345253</v>
       </c>
       <c r="E16">
-        <v>29.29110992567431</v>
+        <v>54.43928806604621</v>
       </c>
       <c r="F16">
-        <v>83.30732529051592</v>
+        <v>47.81341626117718</v>
       </c>
       <c r="G16">
-        <v>1.682676859437082</v>
+        <v>1.899872472731324</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1013,39 +1103,45 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>22.35455471393559</v>
       </c>
       <c r="M16">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>37.21207133442412</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>7.184467606426745</v>
+        <v>29.29482908857877</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>16.76135209267746</v>
+        <v>3.769263594122543</v>
       </c>
       <c r="E17">
-        <v>29.29110992567431</v>
+        <v>53.25641685472577</v>
       </c>
       <c r="F17">
-        <v>83.30732529051592</v>
+        <v>46.4106177803205</v>
       </c>
       <c r="G17">
-        <v>1.682676859437082</v>
+        <v>1.909095562129563</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1054,39 +1150,45 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>21.83774608977239</v>
       </c>
       <c r="M17">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>36.09266485932792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>7.184467606426745</v>
+        <v>28.89161970842975</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>16.76135209267746</v>
+        <v>3.673256744363488</v>
       </c>
       <c r="E18">
-        <v>29.29110992567431</v>
+        <v>52.57104629828514</v>
       </c>
       <c r="F18">
-        <v>83.30732529051592</v>
+        <v>45.60759641564635</v>
       </c>
       <c r="G18">
-        <v>1.682676859437082</v>
+        <v>1.914354143704618</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1095,39 +1197,45 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>21.53817352652794</v>
       </c>
       <c r="M18">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>35.45201679652727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>7.184467606426745</v>
+        <v>28.75450101824799</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>16.76135209267746</v>
+        <v>3.640925178218977</v>
       </c>
       <c r="E19">
-        <v>29.29110992567431</v>
+        <v>52.33808709411293</v>
       </c>
       <c r="F19">
-        <v>83.30732529051592</v>
+        <v>45.33626456081493</v>
       </c>
       <c r="G19">
-        <v>1.682676859437082</v>
+        <v>1.916127547688317</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1136,39 +1244,45 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>21.43632580564983</v>
       </c>
       <c r="M19">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>35.23557155320682</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>7.184467606426745</v>
+        <v>29.36917469440482</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>16.76135209267746</v>
+        <v>3.787119351236211</v>
       </c>
       <c r="E20">
-        <v>29.29110992567431</v>
+        <v>53.382843904162</v>
       </c>
       <c r="F20">
-        <v>83.30732529051592</v>
+        <v>46.55952694065159</v>
       </c>
       <c r="G20">
-        <v>1.682676859437082</v>
+        <v>1.908118756776294</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1177,39 +1291,45 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>21.89299640547471</v>
       </c>
       <c r="M20">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>36.21147553391982</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>7.184467606426745</v>
+        <v>31.39605830463387</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>16.76135209267746</v>
+        <v>4.293157569985969</v>
       </c>
       <c r="E21">
-        <v>29.29110992567431</v>
+        <v>56.83679594935312</v>
       </c>
       <c r="F21">
-        <v>83.30732529051592</v>
+        <v>50.72377419154195</v>
       </c>
       <c r="G21">
-        <v>1.682676859437082</v>
+        <v>1.880583379558522</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1218,39 +1338,45 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>23.401252899557</v>
       </c>
       <c r="M21">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>39.53567104404084</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.184467606426745</v>
+        <v>32.69672483618029</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>16.76135209267746</v>
+        <v>4.638728951585524</v>
       </c>
       <c r="E22">
-        <v>29.29110992567431</v>
+        <v>59.06153025701829</v>
       </c>
       <c r="F22">
-        <v>83.30732529051592</v>
+        <v>53.50774646373146</v>
       </c>
       <c r="G22">
-        <v>1.682676859437082</v>
+        <v>1.861931269779803</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1259,39 +1385,45 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>24.37158918991466</v>
       </c>
       <c r="M22">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>41.76008143085672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.184467606426745</v>
+        <v>32.00439993267192</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>16.76135209267746</v>
+        <v>4.452650802214821</v>
       </c>
       <c r="E23">
-        <v>29.29110992567431</v>
+        <v>57.87643744150156</v>
       </c>
       <c r="F23">
-        <v>83.30732529051592</v>
+        <v>52.0145323885201</v>
       </c>
       <c r="G23">
-        <v>1.682676859437082</v>
+        <v>1.871960278704207</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1300,39 +1432,45 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>23.85481470822118</v>
       </c>
       <c r="M23">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>40.56677216676165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>7.184467606426745</v>
+        <v>29.33557413234733</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>16.76135209267746</v>
+        <v>3.77904346125948</v>
       </c>
       <c r="E24">
-        <v>29.29110992567431</v>
+        <v>53.32570293135315</v>
       </c>
       <c r="F24">
-        <v>83.30732529051592</v>
+        <v>46.49219459104792</v>
       </c>
       <c r="G24">
-        <v>1.682676859437082</v>
+        <v>1.908560504774246</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1341,39 +1479,45 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>21.86802542913431</v>
       </c>
       <c r="M24">
-        <v>77.60390334807057</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>36.157752382314</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.184467606426745</v>
+        <v>26.32655978004509</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>16.76135209267746</v>
+        <v>3.093958537603545</v>
       </c>
       <c r="E25">
-        <v>29.29110992567431</v>
+        <v>48.22215346690509</v>
       </c>
       <c r="F25">
-        <v>83.30732529051592</v>
+        <v>40.6750259501609</v>
       </c>
       <c r="G25">
-        <v>1.682676859437082</v>
+        <v>1.946338790333032</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1382,16 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>16.21480309438332</v>
+        <v>0</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>19.63471838912037</v>
       </c>
       <c r="M25">
-        <v>77.60390334807057</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>31.51862177444495</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.04072485670046</v>
+        <v>10.63937281180172</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.607692431173026</v>
+        <v>4.002274122644196</v>
       </c>
       <c r="E2">
-        <v>44.25365432434302</v>
+        <v>8.358958553851849</v>
       </c>
       <c r="F2">
-        <v>36.41369216242109</v>
+        <v>29.91115456849315</v>
       </c>
       <c r="G2">
-        <v>1.973595380043158</v>
+        <v>39.15182214228169</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>12.93941723073874</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>21.47175800452458</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.932554840264411</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.12209548746738</v>
       </c>
       <c r="L2">
-        <v>17.89246046665375</v>
+        <v>7.040765941917408</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>9.778170173157875</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.12152015610375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.50142446571051</v>
+        <v>10.09315644301281</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>2.283545227788546</v>
+        <v>3.97182827958353</v>
       </c>
       <c r="E3">
-        <v>41.41855854419866</v>
+        <v>8.371088600038423</v>
       </c>
       <c r="F3">
-        <v>33.5088185399614</v>
+        <v>29.62370450549137</v>
       </c>
       <c r="G3">
-        <v>1.992042002932533</v>
+        <v>38.51298076132893</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>12.93024631967305</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>21.65075948281369</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.949703787099319</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.30951994981565</v>
       </c>
       <c r="L3">
-        <v>16.64313217877417</v>
+        <v>6.841995202173251</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>9.502697676760876</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.804992514941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.52025945446243</v>
+        <v>9.746366998262786</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>2.170774603268979</v>
+        <v>3.953792907668184</v>
       </c>
       <c r="E4">
-        <v>39.60293723093455</v>
+        <v>8.37952632068952</v>
       </c>
       <c r="F4">
-        <v>31.76149282745718</v>
+        <v>29.46754566411833</v>
       </c>
       <c r="G4">
-        <v>2.003439093787289</v>
+        <v>38.14963330226026</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>12.93247763315857</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>21.77155761005283</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.960769600997974</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>11.78386818798886</v>
       </c>
       <c r="L4">
-        <v>15.84022980264008</v>
+        <v>6.720334909040944</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>9.333502780948914</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>24.44436364760677</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.1113347383449</v>
+        <v>9.602345250388593</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>2.201351480207924</v>
+        <v>3.946604352957319</v>
       </c>
       <c r="E5">
-        <v>38.84393963500388</v>
+        <v>8.383207007585655</v>
       </c>
       <c r="F5">
-        <v>31.10930784298053</v>
+        <v>29.40891849620139</v>
       </c>
       <c r="G5">
-        <v>2.00811183085457</v>
+        <v>38.00876673738505</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>12.93529895980721</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>21.82343732411377</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.965413118512079</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.56294321119355</v>
       </c>
       <c r="L5">
-        <v>15.50378496600169</v>
+        <v>6.670916426931535</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>9.264632704614806</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>23.97495042269631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.042884682867</v>
+        <v>9.578272820293803</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>2.206738644191092</v>
+        <v>3.945420296607696</v>
       </c>
       <c r="E6">
-        <v>38.71674814769452</v>
+        <v>8.383832629667113</v>
       </c>
       <c r="F6">
-        <v>31.0011583485315</v>
+        <v>29.39948276262805</v>
       </c>
       <c r="G6">
-        <v>2.008889727483911</v>
+        <v>37.98580844575965</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>12.93588103051741</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>21.83220979135481</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.96619225121613</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.52585341474247</v>
       </c>
       <c r="L6">
-        <v>15.44735285362159</v>
+        <v>6.66272200608952</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>9.25320437658554</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>23.89733917741453</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.51478134640664</v>
+        <v>9.744435368851805</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>2.171165451008873</v>
+        <v>3.953695314170992</v>
       </c>
       <c r="E7">
-        <v>39.59277881502717</v>
+        <v>8.379574987264473</v>
       </c>
       <c r="F7">
-        <v>31.75268753534538</v>
+        <v>29.4667348628138</v>
       </c>
       <c r="G7">
-        <v>2.003501984359139</v>
+        <v>38.14770447698243</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>12.93250802625716</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>21.77224664252317</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.960831682997391</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>11.78091590216325</v>
       </c>
       <c r="L7">
-        <v>15.83573017264283</v>
+        <v>6.719667705743437</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>9.332573533640346</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>24.43801060155409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.51740537809139</v>
+        <v>10.45349665085274</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>2.495553628910423</v>
+        <v>3.991636832650681</v>
       </c>
       <c r="E8">
-        <v>43.29143029702877</v>
+        <v>8.362931380757841</v>
       </c>
       <c r="F8">
-        <v>35.41466476474064</v>
+        <v>29.80776064182164</v>
       </c>
       <c r="G8">
-        <v>1.979947900529487</v>
+        <v>38.9255161962439</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>12.93458403997672</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>21.5311645807465</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.93835600632873</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>12.84746445845658</v>
       </c>
       <c r="L8">
-        <v>17.46896200838189</v>
+        <v>6.972185936416684</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>9.683251846876791</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.32497465894868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.35980072140678</v>
+        <v>11.74754812452996</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>3.320948611889987</v>
+        <v>4.071498937467016</v>
       </c>
       <c r="E9">
-        <v>49.97169161091561</v>
+        <v>8.338477131007417</v>
       </c>
       <c r="F9">
-        <v>42.62594262501683</v>
+        <v>30.64212452205791</v>
       </c>
       <c r="G9">
-        <v>1.933750610146948</v>
+        <v>40.68227106776796</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>13.00397438198745</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>21.14891573658432</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.898575979248809</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>14.72742203802164</v>
       </c>
       <c r="L9">
-        <v>20.40105864109252</v>
+        <v>7.46790250455362</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>10.3667632314161</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>33.07404755932463</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.06889815583383</v>
+        <v>12.63343184211278</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>3.957562746966329</v>
+        <v>4.133875270975219</v>
       </c>
       <c r="E10">
-        <v>54.5736174931246</v>
+        <v>8.326009221992715</v>
       </c>
       <c r="F10">
-        <v>47.97408621336743</v>
+        <v>31.36137600735733</v>
       </c>
       <c r="G10">
-        <v>1.898813063758844</v>
+        <v>42.11610172254039</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>13.09884411328946</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>20.92937086355446</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.872033012698226</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>15.98118633121103</v>
       </c>
       <c r="L10">
-        <v>22.41322772138988</v>
+        <v>7.829379742027578</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>10.86186847710918</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>37.34030524102113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.26622323740546</v>
+        <v>13.02151568049921</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.259589607032788</v>
+        <v>4.163152872438277</v>
       </c>
       <c r="E11">
-        <v>56.61510302426866</v>
+        <v>8.321660355690549</v>
       </c>
       <c r="F11">
-        <v>50.45081311215414</v>
+        <v>31.71264991097296</v>
       </c>
       <c r="G11">
-        <v>1.882401506723312</v>
+        <v>42.79973560387468</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>13.15242012480498</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>20.84427920874214</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.860558866276429</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>16.52439470607937</v>
       </c>
       <c r="L11">
-        <v>23.30451026046807</v>
+        <v>7.992697646259026</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>11.08476156420259</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>39.31766767442915</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.7154086564072</v>
+        <v>13.16628210131045</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.376425443333882</v>
+        <v>4.174378536173327</v>
       </c>
       <c r="E12">
-        <v>57.38236950411647</v>
+        <v>8.320216026957103</v>
       </c>
       <c r="F12">
-        <v>51.39891712981567</v>
+        <v>31.84920559489601</v>
       </c>
       <c r="G12">
-        <v>1.876078290964519</v>
+        <v>43.06313793932462</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>13.17428016662978</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>20.8143167370161</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.85630213823909</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>16.72624244610696</v>
       </c>
       <c r="L12">
-        <v>23.63929333103956</v>
+        <v>8.054344017714547</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>11.16877318220496</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>40.07495140582661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.61884056772851</v>
+        <v>13.13520218408627</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.351140104814</v>
+        <v>4.171954553838959</v>
       </c>
       <c r="E13">
-        <v>57.21735073437019</v>
+        <v>8.32051787291895</v>
       </c>
       <c r="F13">
-        <v>51.19419534310384</v>
+        <v>31.81963748079375</v>
       </c>
       <c r="G13">
-        <v>1.877445582608113</v>
+        <v>43.00620801383207</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>13.16950111538635</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>20.82066693499046</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.8572149401032</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>16.68294145896204</v>
       </c>
       <c r="L13">
-        <v>23.56729928068861</v>
+        <v>8.041076730403766</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>11.15069809276779</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>39.91141620744926</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.30325698884899</v>
+        <v>13.03346986535971</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.269147746707318</v>
+        <v>4.164073574731262</v>
       </c>
       <c r="E14">
-        <v>56.6783313421847</v>
+        <v>8.321537396455545</v>
       </c>
       <c r="F14">
-        <v>50.52858242412158</v>
+        <v>31.72381315305945</v>
       </c>
       <c r="G14">
-        <v>1.88188369643099</v>
+        <v>42.82131509031617</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>13.15418663261346</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>20.84176808104951</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.860206881142557</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.54107776707605</v>
       </c>
       <c r="L14">
-        <v>23.33210281279936</v>
+        <v>7.997773502533239</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.09168143086804</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>39.37977735333568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.10943203740434</v>
+        <v>12.97086917736184</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.219269630658038</v>
+        <v>4.159264624174965</v>
       </c>
       <c r="E15">
-        <v>56.3474692937783</v>
+        <v>8.322188642078235</v>
       </c>
       <c r="F15">
-        <v>50.12234386480362</v>
+        <v>31.66558059593372</v>
       </c>
       <c r="G15">
-        <v>1.884586863664685</v>
+        <v>42.70865260310971</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>13.14501299401466</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>20.85499160676981</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.862051091376722</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.45368188567078</v>
       </c>
       <c r="L15">
-        <v>23.18770816869599</v>
+        <v>7.971222158861231</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.05547925054871</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>39.05535326903774</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.99001069110395</v>
+        <v>12.60776512620461</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>3.938128189345253</v>
+        <v>4.131980819903339</v>
       </c>
       <c r="E16">
-        <v>54.43928806604621</v>
+        <v>8.326321067750566</v>
       </c>
       <c r="F16">
-        <v>47.81341626117718</v>
+        <v>31.33891030531943</v>
       </c>
       <c r="G16">
-        <v>1.899872472731324</v>
+        <v>42.07205704130277</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>13.09555873029308</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>20.93524049652545</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.872795116080424</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>15.94514433940228</v>
       </c>
       <c r="L16">
-        <v>22.35455471393559</v>
+        <v>7.818680645484309</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>10.84724982547072</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>37.21207133442412</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.29482908857877</v>
+        <v>12.38115431408204</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>3.769263594122543</v>
+        <v>4.115480308062381</v>
       </c>
       <c r="E17">
-        <v>53.25641685472577</v>
+        <v>8.3292032996056</v>
       </c>
       <c r="F17">
-        <v>46.4106177803205</v>
+        <v>31.14472932725923</v>
       </c>
       <c r="G17">
-        <v>1.909095562129563</v>
+        <v>41.68957079418748</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>13.06794084393722</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>20.98834883122912</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.879541292511296</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>15.62625526484264</v>
       </c>
       <c r="L17">
-        <v>21.83774608977239</v>
+        <v>7.724785841680329</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>10.71886664763437</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>36.09266485932792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.89161970842975</v>
+        <v>12.24941228204858</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>3.673256744363488</v>
+        <v>4.106073964756937</v>
       </c>
       <c r="E18">
-        <v>52.57104629828514</v>
+        <v>8.330984784652367</v>
       </c>
       <c r="F18">
-        <v>45.60759641564635</v>
+        <v>31.03530421143287</v>
       </c>
       <c r="G18">
-        <v>1.914354143704618</v>
+        <v>41.47252735397588</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>13.05303201094514</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>21.02027791461529</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.883477892001681</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>15.44028123037168</v>
       </c>
       <c r="L18">
-        <v>21.53817352652794</v>
+        <v>7.6706764787543</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>10.64480739836208</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>35.45201679652727</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.75450101824799</v>
+        <v>12.20456772813991</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3.640925178218977</v>
+        <v>4.102903361001945</v>
       </c>
       <c r="E19">
-        <v>52.33808709411293</v>
+        <v>8.331608858688934</v>
       </c>
       <c r="F19">
-        <v>45.33626456081493</v>
+        <v>30.99864110730787</v>
       </c>
       <c r="G19">
-        <v>1.916127547688317</v>
+        <v>41.39954694391291</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>13.04814958060833</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>21.03132207301972</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.884820385263859</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>15.37687300868272</v>
       </c>
       <c r="L19">
-        <v>21.43632580564983</v>
+        <v>7.65233943888646</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>10.61969689514227</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>35.23557155320682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.36917469440482</v>
+        <v>12.40542287228224</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>3.787119351236211</v>
+        <v>4.117228027202064</v>
       </c>
       <c r="E20">
-        <v>53.382843904162</v>
+        <v>8.328883593896778</v>
       </c>
       <c r="F20">
-        <v>46.55952694065159</v>
+        <v>31.165165515506</v>
       </c>
       <c r="G20">
-        <v>1.908118756776294</v>
+        <v>41.7299814527417</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>13.07077924742183</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>20.98255132413405</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.878817302527962</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>15.66046591114496</v>
       </c>
       <c r="L20">
-        <v>21.89299640547471</v>
+        <v>7.734792113313103</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>10.73255612207331</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>36.21147553391982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.39605830463387</v>
+        <v>13.06341092774399</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.293157569985969</v>
+        <v>4.166384561599569</v>
       </c>
       <c r="E21">
-        <v>56.83679594935312</v>
+        <v>8.32123233746168</v>
       </c>
       <c r="F21">
-        <v>50.72377419154195</v>
+        <v>31.75186254508479</v>
       </c>
       <c r="G21">
-        <v>1.880583379558522</v>
+        <v>42.87549968514506</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>13.15864161138209</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>20.83550770928091</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.859325662533744</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>16.58285073210692</v>
       </c>
       <c r="L21">
-        <v>23.401252899557</v>
+        <v>8.0104983672103</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>11.10902714369427</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>39.53567104404084</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.69672483618029</v>
+        <v>13.48065261021183</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.638728951585524</v>
+        <v>4.199325796047497</v>
       </c>
       <c r="E22">
-        <v>59.06153025701829</v>
+        <v>8.317418796910236</v>
       </c>
       <c r="F22">
-        <v>53.50774646373146</v>
+        <v>32.15594610643266</v>
       </c>
       <c r="G22">
-        <v>1.861931269779803</v>
+        <v>43.65054855093794</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>13.22526250167259</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>20.75264815994688</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.847102457124595</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>17.16324906693275</v>
       </c>
       <c r="L22">
-        <v>24.37158918991466</v>
+        <v>8.189518013035615</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>11.35276026615734</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>41.76008143085672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.00439993267192</v>
+        <v>13.259145419823</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.452650802214821</v>
+        <v>4.181666560966788</v>
       </c>
       <c r="E23">
-        <v>57.87643744150156</v>
+        <v>8.319341123401022</v>
       </c>
       <c r="F23">
-        <v>52.0145323885201</v>
+        <v>31.93836644986055</v>
       </c>
       <c r="G23">
-        <v>1.871960278704207</v>
+        <v>43.23447001799701</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>13.1888394079013</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>20.79561318769695</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.853578299056616</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>16.8555143241459</v>
       </c>
       <c r="L23">
-        <v>23.85481470822118</v>
+        <v>8.094089695186019</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>11.22290379920371</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>40.56677216676165</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.33557413234733</v>
+        <v>12.39445560226318</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>3.77904346125948</v>
+        <v>4.116437634805696</v>
       </c>
       <c r="E24">
-        <v>53.32570293135315</v>
+        <v>8.329027746118944</v>
       </c>
       <c r="F24">
-        <v>46.49219459104792</v>
+        <v>31.15591943006292</v>
       </c>
       <c r="G24">
-        <v>1.908560504774246</v>
+        <v>41.71170290841887</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>13.06949299237121</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>20.98516803769237</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.879144437472004</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>15.64500750597658</v>
       </c>
       <c r="L24">
-        <v>21.86802542913431</v>
+        <v>7.730268673642342</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>10.72636788505319</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>36.157752382314</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.32655978004509</v>
+        <v>11.40851069743782</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.093958537603545</v>
+        <v>4.049273768350004</v>
       </c>
       <c r="E25">
-        <v>48.22215346690509</v>
+        <v>8.344167149450731</v>
       </c>
       <c r="F25">
-        <v>40.6750259501609</v>
+        <v>30.39810214625638</v>
       </c>
       <c r="G25">
-        <v>1.946338790333032</v>
+        <v>40.1819860761161</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>12.97779186832853</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>21.2420310091601</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.908871716596591</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>14.24136901184613</v>
       </c>
       <c r="L25">
-        <v>19.63471838912037</v>
+        <v>7.334075514314165</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>10.18279644248788</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>31.51862177444495</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.63937281180172</v>
+        <v>13.50780914192253</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.002274122644196</v>
+        <v>7.338121875690404</v>
       </c>
       <c r="E2">
-        <v>8.358958553851849</v>
+        <v>13.33199612275783</v>
       </c>
       <c r="F2">
-        <v>29.91115456849315</v>
+        <v>42.1540485701454</v>
       </c>
       <c r="G2">
-        <v>39.15182214228169</v>
+        <v>50.32554851327314</v>
       </c>
       <c r="H2">
-        <v>12.93941723073874</v>
+        <v>19.69306916641901</v>
       </c>
       <c r="I2">
-        <v>21.47175800452458</v>
+        <v>32.18559989136059</v>
       </c>
       <c r="J2">
-        <v>6.932554840264411</v>
+        <v>10.79730362532782</v>
       </c>
       <c r="K2">
-        <v>13.12209548746738</v>
+        <v>11.19219560866518</v>
       </c>
       <c r="L2">
-        <v>7.040765941917408</v>
+        <v>10.87546744287762</v>
       </c>
       <c r="M2">
-        <v>9.778170173157875</v>
+        <v>15.45738209806132</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.09315644301281</v>
+        <v>13.42392698727772</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.97182827958353</v>
+        <v>7.340436505544128</v>
       </c>
       <c r="E3">
-        <v>8.371088600038423</v>
+        <v>13.34095018146238</v>
       </c>
       <c r="F3">
-        <v>29.62370450549137</v>
+        <v>42.21097680419296</v>
       </c>
       <c r="G3">
-        <v>38.51298076132893</v>
+        <v>50.34153512715321</v>
       </c>
       <c r="H3">
-        <v>12.93024631967305</v>
+        <v>19.73600097076619</v>
       </c>
       <c r="I3">
-        <v>21.65075948281369</v>
+        <v>32.28020930317126</v>
       </c>
       <c r="J3">
-        <v>6.949703787099319</v>
+        <v>10.80322519421907</v>
       </c>
       <c r="K3">
-        <v>12.30951994981565</v>
+        <v>11.00023668664309</v>
       </c>
       <c r="L3">
-        <v>6.841995202173251</v>
+        <v>10.86658857259607</v>
       </c>
       <c r="M3">
-        <v>9.502697676760876</v>
+        <v>15.44423674448167</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.746366998262786</v>
+        <v>13.37456945563479</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.953792907668184</v>
+        <v>7.342211484088372</v>
       </c>
       <c r="E4">
-        <v>8.37952632068952</v>
+        <v>13.34685289445694</v>
       </c>
       <c r="F4">
-        <v>29.46754566411833</v>
+        <v>42.25421348363957</v>
       </c>
       <c r="G4">
-        <v>38.14963330226026</v>
+        <v>50.36354498562978</v>
       </c>
       <c r="H4">
-        <v>12.93247763315857</v>
+        <v>19.76544398661215</v>
       </c>
       <c r="I4">
-        <v>21.77155761005283</v>
+        <v>32.3427900128795</v>
       </c>
       <c r="J4">
-        <v>6.960769600997974</v>
+        <v>10.80709166478146</v>
       </c>
       <c r="K4">
-        <v>11.78386818798886</v>
+        <v>10.88310061761984</v>
       </c>
       <c r="L4">
-        <v>6.720334909040944</v>
+        <v>10.86275973212655</v>
       </c>
       <c r="M4">
-        <v>9.333502780948914</v>
+        <v>15.43831145375423</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.602345250388593</v>
+        <v>13.35501303802626</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.946604352957319</v>
+        <v>7.34302403596577</v>
       </c>
       <c r="E5">
-        <v>8.383207007585655</v>
+        <v>13.34936029957271</v>
       </c>
       <c r="F5">
-        <v>29.40891849620139</v>
+        <v>42.2739129238283</v>
       </c>
       <c r="G5">
-        <v>38.00876673738505</v>
+        <v>50.37557708962757</v>
       </c>
       <c r="H5">
-        <v>12.93529895980721</v>
+        <v>19.77821684413703</v>
       </c>
       <c r="I5">
-        <v>21.82343732411377</v>
+        <v>32.36942121225089</v>
       </c>
       <c r="J5">
-        <v>6.965413118512079</v>
+        <v>10.8087254093183</v>
       </c>
       <c r="K5">
-        <v>11.56294321119355</v>
+        <v>10.83561450347782</v>
       </c>
       <c r="L5">
-        <v>6.670916426931535</v>
+        <v>10.86160934632285</v>
       </c>
       <c r="M5">
-        <v>9.264632704614806</v>
+        <v>15.43643936744067</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.578272820293803</v>
+        <v>13.35179985538147</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.945420296607696</v>
+        <v>7.34316435701419</v>
       </c>
       <c r="E6">
-        <v>8.383832629667113</v>
+        <v>13.34978281856</v>
       </c>
       <c r="F6">
-        <v>29.39948276262805</v>
+        <v>42.27730955054174</v>
       </c>
       <c r="G6">
-        <v>37.98580844575965</v>
+        <v>50.3777598719762</v>
       </c>
       <c r="H6">
-        <v>12.93588103051741</v>
+        <v>19.78038453248482</v>
       </c>
       <c r="I6">
-        <v>21.83220979135481</v>
+        <v>32.37391149382037</v>
       </c>
       <c r="J6">
-        <v>6.96619225121613</v>
+        <v>10.80900020615736</v>
       </c>
       <c r="K6">
-        <v>11.52585341474247</v>
+        <v>10.8277463379041</v>
       </c>
       <c r="L6">
-        <v>6.66272200608952</v>
+        <v>10.8614431319864</v>
       </c>
       <c r="M6">
-        <v>9.25320437658554</v>
+        <v>15.43616135523533</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.744435368851805</v>
+        <v>13.37430343253134</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.953695314170992</v>
+        <v>7.342222080770841</v>
       </c>
       <c r="E7">
-        <v>8.379574987264473</v>
+        <v>13.34688629693153</v>
       </c>
       <c r="F7">
-        <v>29.4667348628138</v>
+        <v>42.25447073860976</v>
       </c>
       <c r="G7">
-        <v>38.14770447698243</v>
+        <v>50.36369485897184</v>
       </c>
       <c r="H7">
-        <v>12.93250802625716</v>
+        <v>19.76561311039325</v>
       </c>
       <c r="I7">
-        <v>21.77224664252317</v>
+        <v>32.34314459912225</v>
       </c>
       <c r="J7">
-        <v>6.960831682997391</v>
+        <v>10.80711346249123</v>
       </c>
       <c r="K7">
-        <v>11.78091590216325</v>
+        <v>10.88245911406602</v>
       </c>
       <c r="L7">
-        <v>6.719667705743437</v>
+        <v>10.8627425556979</v>
       </c>
       <c r="M7">
-        <v>9.332573533640346</v>
+        <v>15.43828400588115</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.45349665085274</v>
+        <v>13.47845177988268</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.991636832650681</v>
+        <v>7.33884669388628</v>
       </c>
       <c r="E8">
-        <v>8.362931380757841</v>
+        <v>13.33499956222902</v>
       </c>
       <c r="F8">
-        <v>29.80776064182164</v>
+        <v>42.17195700495407</v>
       </c>
       <c r="G8">
-        <v>38.9255161962439</v>
+        <v>50.32852828681564</v>
       </c>
       <c r="H8">
-        <v>12.93458403997672</v>
+        <v>19.70723190030655</v>
       </c>
       <c r="I8">
-        <v>21.5311645807465</v>
+        <v>32.21728926916649</v>
       </c>
       <c r="J8">
-        <v>6.93835600632873</v>
+        <v>10.79929760428302</v>
       </c>
       <c r="K8">
-        <v>12.84746445845658</v>
+        <v>11.12589594299744</v>
       </c>
       <c r="L8">
-        <v>6.972185936416684</v>
+        <v>10.87207034212793</v>
       </c>
       <c r="M8">
-        <v>9.683251846876791</v>
+        <v>15.45240597561257</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.74754812452996</v>
+        <v>13.69891585913828</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.071498937467016</v>
+        <v>7.335023170556464</v>
       </c>
       <c r="E9">
-        <v>8.338477131007417</v>
+        <v>13.31489388731634</v>
       </c>
       <c r="F9">
-        <v>30.64212452205791</v>
+        <v>42.07596115163273</v>
       </c>
       <c r="G9">
-        <v>40.68227106776796</v>
+        <v>50.35640364301604</v>
       </c>
       <c r="H9">
-        <v>13.00397438198745</v>
+        <v>19.61723129133325</v>
       </c>
       <c r="I9">
-        <v>21.14891573658432</v>
+        <v>32.00611585293647</v>
       </c>
       <c r="J9">
-        <v>6.898575979248809</v>
+        <v>10.78579419989198</v>
       </c>
       <c r="K9">
-        <v>14.72742203802164</v>
+        <v>11.606231535824</v>
       </c>
       <c r="L9">
-        <v>7.46790250455362</v>
+        <v>10.90315130438847</v>
       </c>
       <c r="M9">
-        <v>10.3667632314161</v>
+        <v>15.49699147643647</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.63343184211278</v>
+        <v>13.86966529939782</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.133875270975219</v>
+        <v>7.333903353939604</v>
       </c>
       <c r="E10">
-        <v>8.326009221992715</v>
+        <v>13.30206422724924</v>
       </c>
       <c r="F10">
-        <v>31.36137600735733</v>
+        <v>42.04565600431941</v>
       </c>
       <c r="G10">
-        <v>42.11610172254039</v>
+        <v>50.4359313450564</v>
       </c>
       <c r="H10">
-        <v>13.09884411328946</v>
+        <v>19.56606632663891</v>
       </c>
       <c r="I10">
-        <v>20.92937086355446</v>
+        <v>31.87268808333333</v>
       </c>
       <c r="J10">
-        <v>6.872033012698226</v>
+        <v>10.7769762500267</v>
       </c>
       <c r="K10">
-        <v>15.98118633121103</v>
+        <v>11.95725140763927</v>
       </c>
       <c r="L10">
-        <v>7.829379742027578</v>
+        <v>10.93365610604467</v>
       </c>
       <c r="M10">
-        <v>10.86186847710918</v>
+        <v>15.5398527283433</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.02151568049921</v>
+        <v>13.94899900686952</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.163152872438277</v>
+        <v>7.333757573533589</v>
       </c>
       <c r="E11">
-        <v>8.321660355690549</v>
+        <v>13.29664700039229</v>
       </c>
       <c r="F11">
-        <v>31.71264991097296</v>
+        <v>42.04061277815598</v>
       </c>
       <c r="G11">
-        <v>42.79973560387468</v>
+        <v>50.48489786389491</v>
       </c>
       <c r="H11">
-        <v>13.15242012480498</v>
+        <v>19.54604376333945</v>
       </c>
       <c r="I11">
-        <v>20.84427920874214</v>
+        <v>31.81670545286131</v>
       </c>
       <c r="J11">
-        <v>6.860558866276429</v>
+        <v>10.77320242585289</v>
       </c>
       <c r="K11">
-        <v>16.52439470607937</v>
+        <v>12.11578565075243</v>
       </c>
       <c r="L11">
-        <v>7.992697646259026</v>
+        <v>10.94916783768992</v>
       </c>
       <c r="M11">
-        <v>11.08476156420259</v>
+        <v>15.56149921620858</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.16628210131045</v>
+        <v>13.9792574998543</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.174378536173327</v>
+        <v>7.333754382155886</v>
       </c>
       <c r="E12">
-        <v>8.320216026957103</v>
+        <v>13.29465571652451</v>
       </c>
       <c r="F12">
-        <v>31.84920559489601</v>
+        <v>42.03995976892127</v>
       </c>
       <c r="G12">
-        <v>43.06313793932462</v>
+        <v>50.50527305285672</v>
       </c>
       <c r="H12">
-        <v>13.17428016662978</v>
+        <v>19.53892980009214</v>
       </c>
       <c r="I12">
-        <v>20.8143167370161</v>
+        <v>31.79618435934538</v>
       </c>
       <c r="J12">
-        <v>6.85630213823909</v>
+        <v>10.77180739214864</v>
       </c>
       <c r="K12">
-        <v>16.72624244610696</v>
+        <v>12.17559463638238</v>
       </c>
       <c r="L12">
-        <v>8.054344017714547</v>
+        <v>10.95527384207127</v>
       </c>
       <c r="M12">
-        <v>11.16877318220496</v>
+        <v>15.57000079703749</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.13520218408627</v>
+        <v>13.97273151474921</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.171954553838959</v>
+        <v>7.333752760641597</v>
       </c>
       <c r="E13">
-        <v>8.32051787291895</v>
+        <v>13.2950819045303</v>
       </c>
       <c r="F13">
-        <v>31.81963748079375</v>
+        <v>42.04004452615199</v>
       </c>
       <c r="G13">
-        <v>43.00620801383207</v>
+        <v>50.50080350683331</v>
       </c>
       <c r="H13">
-        <v>13.16950111538635</v>
+        <v>19.54044109252607</v>
       </c>
       <c r="I13">
-        <v>20.82066693499046</v>
+        <v>31.80057376942067</v>
       </c>
       <c r="J13">
-        <v>6.8572149401032</v>
+        <v>10.77210632596932</v>
       </c>
       <c r="K13">
-        <v>16.68294145896204</v>
+        <v>12.16272460553644</v>
       </c>
       <c r="L13">
-        <v>8.041076730403766</v>
+        <v>10.95394853509138</v>
       </c>
       <c r="M13">
-        <v>11.15069809276779</v>
+        <v>15.56815635911565</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.03346986535971</v>
+        <v>13.95148417859224</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.164073574731262</v>
+        <v>7.333756270161943</v>
       </c>
       <c r="E14">
-        <v>8.321537396455545</v>
+        <v>13.29648197261436</v>
       </c>
       <c r="F14">
-        <v>31.72381315305945</v>
+        <v>42.04053387250989</v>
       </c>
       <c r="G14">
-        <v>42.82131509031617</v>
+        <v>50.48653745776025</v>
       </c>
       <c r="H14">
-        <v>13.15418663261346</v>
+        <v>19.54544910880804</v>
       </c>
       <c r="I14">
-        <v>20.84176808104951</v>
+        <v>31.81500357343385</v>
       </c>
       <c r="J14">
-        <v>6.860206881142557</v>
+        <v>10.77308697423572</v>
       </c>
       <c r="K14">
-        <v>16.54107776707605</v>
+        <v>12.12071100287791</v>
       </c>
       <c r="L14">
-        <v>7.997773502533239</v>
+        <v>10.94966554994633</v>
       </c>
       <c r="M14">
-        <v>11.09168143086804</v>
+        <v>15.56219256960097</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.97086917736184</v>
+        <v>13.93849711343632</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.159264624174965</v>
+        <v>7.33376518515476</v>
       </c>
       <c r="E15">
-        <v>8.322188642078235</v>
+        <v>13.29734737725125</v>
       </c>
       <c r="F15">
-        <v>31.66558059593372</v>
+        <v>42.04099725250686</v>
       </c>
       <c r="G15">
-        <v>42.70865260310971</v>
+        <v>50.47803753080906</v>
       </c>
       <c r="H15">
-        <v>13.14501299401466</v>
+        <v>19.54857764109424</v>
       </c>
       <c r="I15">
-        <v>20.85499160676981</v>
+        <v>31.82393059340971</v>
       </c>
       <c r="J15">
-        <v>6.862051091376722</v>
+        <v>10.77369207795954</v>
       </c>
       <c r="K15">
-        <v>16.45368188567078</v>
+        <v>12.09494549994194</v>
       </c>
       <c r="L15">
-        <v>7.971222158861231</v>
+        <v>10.94707222339933</v>
       </c>
       <c r="M15">
-        <v>11.05547925054871</v>
+        <v>15.55857909824607</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.60776512620461</v>
+        <v>13.86451216206462</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.131980819903339</v>
+        <v>7.333920174556679</v>
       </c>
       <c r="E16">
-        <v>8.326321067750566</v>
+        <v>13.30242667467814</v>
       </c>
       <c r="F16">
-        <v>31.33891030531943</v>
+        <v>42.04616149488412</v>
       </c>
       <c r="G16">
-        <v>42.07205704130277</v>
+        <v>50.43298811038183</v>
       </c>
       <c r="H16">
-        <v>13.09555873029308</v>
+        <v>19.56744033745207</v>
       </c>
       <c r="I16">
-        <v>20.93524049652545</v>
+        <v>31.87644157825079</v>
       </c>
       <c r="J16">
-        <v>6.872795116080424</v>
+        <v>10.7772276471159</v>
       </c>
       <c r="K16">
-        <v>15.94514433940228</v>
+        <v>11.94686259259386</v>
       </c>
       <c r="L16">
-        <v>7.818680645484309</v>
+        <v>10.93267502053167</v>
       </c>
       <c r="M16">
-        <v>10.84724982547072</v>
+        <v>15.53848094146588</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.38115431408204</v>
+        <v>13.81953411902032</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.115480308062381</v>
+        <v>7.334108193325973</v>
       </c>
       <c r="E17">
-        <v>8.3292032996056</v>
+        <v>13.30564987559588</v>
       </c>
       <c r="F17">
-        <v>31.14472932725923</v>
+        <v>42.0515687157755</v>
       </c>
       <c r="G17">
-        <v>41.68957079418748</v>
+        <v>50.40862335735908</v>
       </c>
       <c r="H17">
-        <v>13.06794084393722</v>
+        <v>19.57984539394979</v>
       </c>
       <c r="I17">
-        <v>20.98834883122912</v>
+        <v>31.9098631020167</v>
       </c>
       <c r="J17">
-        <v>6.879541292511296</v>
+        <v>10.77945734824166</v>
       </c>
       <c r="K17">
-        <v>15.62625526484264</v>
+        <v>11.85568160510682</v>
       </c>
       <c r="L17">
-        <v>7.724785841680329</v>
+        <v>10.92425944065688</v>
       </c>
       <c r="M17">
-        <v>10.71886664763437</v>
+        <v>15.52669861330349</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.24941228204858</v>
+        <v>13.793821424135</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.106073964756937</v>
+        <v>7.334250580037073</v>
       </c>
       <c r="E18">
-        <v>8.330984784652367</v>
+        <v>13.30754322768951</v>
       </c>
       <c r="F18">
-        <v>31.03530421143287</v>
+        <v>42.05550178346535</v>
       </c>
       <c r="G18">
-        <v>41.47252735397588</v>
+        <v>50.39581365815396</v>
       </c>
       <c r="H18">
-        <v>13.05303201094514</v>
+        <v>19.58728658742781</v>
       </c>
       <c r="I18">
-        <v>21.02027791461529</v>
+        <v>31.92952998941528</v>
       </c>
       <c r="J18">
-        <v>6.883477892001681</v>
+        <v>10.78076217566026</v>
       </c>
       <c r="K18">
-        <v>15.44028123037168</v>
+        <v>11.80313220500666</v>
       </c>
       <c r="L18">
-        <v>7.6706764787543</v>
+        <v>10.91957310579989</v>
       </c>
       <c r="M18">
-        <v>10.64480739836208</v>
+        <v>15.52012425667114</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.20456772813991</v>
+        <v>13.78514326153787</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.102903361001945</v>
+        <v>7.334304679444551</v>
       </c>
       <c r="E19">
-        <v>8.331608858688934</v>
+        <v>13.30819106492721</v>
       </c>
       <c r="F19">
-        <v>30.99864110730787</v>
+        <v>42.05697480215071</v>
       </c>
       <c r="G19">
-        <v>41.39954694391291</v>
+        <v>50.39168351144936</v>
       </c>
       <c r="H19">
-        <v>13.04814958060833</v>
+        <v>19.58985861222097</v>
       </c>
       <c r="I19">
-        <v>21.03132207301972</v>
+        <v>31.93626505531125</v>
       </c>
       <c r="J19">
-        <v>6.884820385263859</v>
+        <v>10.7812078122733</v>
       </c>
       <c r="K19">
-        <v>15.37687300868272</v>
+        <v>11.78532379318037</v>
       </c>
       <c r="L19">
-        <v>7.65233943888646</v>
+        <v>10.91801294728338</v>
       </c>
       <c r="M19">
-        <v>10.61969689514227</v>
+        <v>15.51793320836292</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.40542287228224</v>
+        <v>13.82430596781225</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.117228027202064</v>
+        <v>7.334084636368823</v>
       </c>
       <c r="E20">
-        <v>8.328883593896778</v>
+        <v>13.30530267835753</v>
       </c>
       <c r="F20">
-        <v>31.165165515506</v>
+        <v>42.05090793382531</v>
       </c>
       <c r="G20">
-        <v>41.7299814527417</v>
+        <v>50.41109243058969</v>
       </c>
       <c r="H20">
-        <v>13.07077924742183</v>
+        <v>19.57849316755049</v>
       </c>
       <c r="I20">
-        <v>20.98255132413405</v>
+        <v>31.90625939844259</v>
       </c>
       <c r="J20">
-        <v>6.878817302527962</v>
+        <v>10.77921767922298</v>
       </c>
       <c r="K20">
-        <v>15.66046591114496</v>
+        <v>11.8653992336824</v>
       </c>
       <c r="L20">
-        <v>7.734792113313103</v>
+        <v>10.92513936787393</v>
       </c>
       <c r="M20">
-        <v>10.73255612207331</v>
+        <v>15.52793193295906</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.06341092774399</v>
+        <v>13.95771933624458</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.166384561599569</v>
+        <v>7.333753829944192</v>
       </c>
       <c r="E21">
-        <v>8.32123233746168</v>
+        <v>13.29606910875269</v>
       </c>
       <c r="F21">
-        <v>31.75186254508479</v>
+        <v>42.04035603869072</v>
       </c>
       <c r="G21">
-        <v>42.87549968514506</v>
+        <v>50.49067806559429</v>
       </c>
       <c r="H21">
-        <v>13.15864161138209</v>
+        <v>19.54396542468746</v>
       </c>
       <c r="I21">
-        <v>20.83550770928091</v>
+        <v>31.81074677777295</v>
       </c>
       <c r="J21">
-        <v>6.859325662533744</v>
+        <v>10.77279801142047</v>
       </c>
       <c r="K21">
-        <v>16.58285073210692</v>
+        <v>12.13305797056808</v>
       </c>
       <c r="L21">
-        <v>8.0104983672103</v>
+        <v>10.95091729409791</v>
       </c>
       <c r="M21">
-        <v>11.10902714369427</v>
+        <v>15.56393605109809</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.48065261021183</v>
+        <v>14.04616445847061</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.199325796047497</v>
+        <v>7.333840667593829</v>
       </c>
       <c r="E22">
-        <v>8.317418796910236</v>
+        <v>13.29038468926479</v>
       </c>
       <c r="F22">
-        <v>32.15594610643266</v>
+        <v>42.04078438082464</v>
       </c>
       <c r="G22">
-        <v>43.65054855093794</v>
+        <v>50.55336954160259</v>
       </c>
       <c r="H22">
-        <v>13.22526250167259</v>
+        <v>19.52412840636001</v>
       </c>
       <c r="I22">
-        <v>20.75264815994688</v>
+        <v>31.75227767792825</v>
       </c>
       <c r="J22">
-        <v>6.847102457124595</v>
+        <v>10.76880069445235</v>
       </c>
       <c r="K22">
-        <v>17.16324906693275</v>
+        <v>12.3066542518692</v>
       </c>
       <c r="L22">
-        <v>8.189518013035615</v>
+        <v>10.96911565958684</v>
       </c>
       <c r="M22">
-        <v>11.35276026615734</v>
+        <v>15.58923959689114</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.259145419823</v>
+        <v>13.99885243406554</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.181666560966788</v>
+        <v>7.33376668463165</v>
       </c>
       <c r="E23">
-        <v>8.319341123401022</v>
+        <v>13.29338657379081</v>
       </c>
       <c r="F23">
-        <v>31.93836644986055</v>
+        <v>42.0398858878747</v>
       </c>
       <c r="G23">
-        <v>43.23447001799701</v>
+        <v>50.51893552194043</v>
       </c>
       <c r="H23">
-        <v>13.1888394079013</v>
+        <v>19.53446598705193</v>
       </c>
       <c r="I23">
-        <v>20.79561318769695</v>
+        <v>31.78312182023827</v>
       </c>
       <c r="J23">
-        <v>6.853578299056616</v>
+        <v>10.77091603232883</v>
       </c>
       <c r="K23">
-        <v>16.8555143241459</v>
+        <v>12.21414370343761</v>
       </c>
       <c r="L23">
-        <v>8.094089695186019</v>
+        <v>10.95928029237716</v>
       </c>
       <c r="M23">
-        <v>11.22290379920371</v>
+        <v>15.57557394290199</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.39445560226318</v>
+        <v>13.8221481592094</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.116437634805696</v>
+        <v>7.334095179655943</v>
       </c>
       <c r="E24">
-        <v>8.329027746118944</v>
+        <v>13.30545952073745</v>
       </c>
       <c r="F24">
-        <v>31.15591943006292</v>
+        <v>42.05120410535352</v>
       </c>
       <c r="G24">
-        <v>41.71170290841887</v>
+        <v>50.40997243058813</v>
       </c>
       <c r="H24">
-        <v>13.06949299237121</v>
+        <v>19.57910354545619</v>
       </c>
       <c r="I24">
-        <v>20.98516803769237</v>
+        <v>31.90788722358999</v>
       </c>
       <c r="J24">
-        <v>6.879144437472004</v>
+        <v>10.779325962119</v>
       </c>
       <c r="K24">
-        <v>15.64500750597658</v>
+        <v>11.86100628864924</v>
       </c>
       <c r="L24">
-        <v>7.730268673642342</v>
+        <v>10.92474107940728</v>
       </c>
       <c r="M24">
-        <v>10.72636788505319</v>
+        <v>15.52737372750199</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.40851069743782</v>
+        <v>13.63765016994557</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.049273768350004</v>
+        <v>7.335759783825177</v>
       </c>
       <c r="E25">
-        <v>8.344167149450731</v>
+        <v>13.31999116190766</v>
       </c>
       <c r="F25">
-        <v>30.39810214625638</v>
+        <v>42.0948718645155</v>
       </c>
       <c r="G25">
-        <v>40.1819860761161</v>
+        <v>50.33848699148133</v>
       </c>
       <c r="H25">
-        <v>12.97779186832853</v>
+        <v>19.63895401365242</v>
       </c>
       <c r="I25">
-        <v>21.2420310091601</v>
+        <v>32.05942948380078</v>
       </c>
       <c r="J25">
-        <v>6.908871716596591</v>
+        <v>10.78925291199823</v>
       </c>
       <c r="K25">
-        <v>14.24136901184613</v>
+        <v>11.47635840382413</v>
       </c>
       <c r="L25">
-        <v>7.334075514314165</v>
+        <v>10.89338621824158</v>
       </c>
       <c r="M25">
-        <v>10.18279644248788</v>
+        <v>15.483140474173</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -421,40 +421,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.50780914192253</v>
+        <v>10.63937281180172</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.338121875690404</v>
+        <v>4.002274122644129</v>
       </c>
       <c r="E2">
-        <v>13.33199612275783</v>
+        <v>8.358958553851782</v>
       </c>
       <c r="F2">
-        <v>42.1540485701454</v>
+        <v>29.91115456849305</v>
       </c>
       <c r="G2">
-        <v>50.32554851327314</v>
+        <v>39.15182214228168</v>
       </c>
       <c r="H2">
-        <v>19.69306916641901</v>
+        <v>12.93941723073869</v>
       </c>
       <c r="I2">
-        <v>32.18559989136059</v>
+        <v>21.47175800452453</v>
       </c>
       <c r="J2">
-        <v>10.79730362532782</v>
+        <v>6.932554840264412</v>
       </c>
       <c r="K2">
-        <v>11.19219560866518</v>
+        <v>13.12209548746736</v>
       </c>
       <c r="L2">
-        <v>10.87546744287762</v>
+        <v>7.040765941917375</v>
       </c>
       <c r="M2">
-        <v>15.45738209806132</v>
+        <v>9.778170173157843</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,40 +468,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.42392698727772</v>
+        <v>10.09315644301278</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.340436505544128</v>
+        <v>3.97182827958334</v>
       </c>
       <c r="E3">
-        <v>13.34095018146238</v>
+        <v>8.371088600038423</v>
       </c>
       <c r="F3">
-        <v>42.21097680419296</v>
+        <v>29.62370450549106</v>
       </c>
       <c r="G3">
-        <v>50.34153512715321</v>
+        <v>38.51298076132865</v>
       </c>
       <c r="H3">
-        <v>19.73600097076619</v>
+        <v>12.9302463196729</v>
       </c>
       <c r="I3">
-        <v>32.28020930317126</v>
+        <v>21.65075948281349</v>
       </c>
       <c r="J3">
-        <v>10.80322519421907</v>
+        <v>6.949703787099354</v>
       </c>
       <c r="K3">
-        <v>11.00023668664309</v>
+        <v>12.30951994981576</v>
       </c>
       <c r="L3">
-        <v>10.86658857259607</v>
+        <v>6.841995202173182</v>
       </c>
       <c r="M3">
-        <v>15.44423674448167</v>
+        <v>9.502697676760816</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,40 +515,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.37456945563479</v>
+        <v>9.746366998262801</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.342211484088372</v>
+        <v>3.953792907668062</v>
       </c>
       <c r="E4">
-        <v>13.34685289445694</v>
+        <v>8.379526320689255</v>
       </c>
       <c r="F4">
-        <v>42.25421348363957</v>
+        <v>29.4675456641181</v>
       </c>
       <c r="G4">
-        <v>50.36354498562978</v>
+        <v>38.14963330226003</v>
       </c>
       <c r="H4">
-        <v>19.76544398661215</v>
+        <v>12.93247763315853</v>
       </c>
       <c r="I4">
-        <v>32.3427900128795</v>
+        <v>21.77155761005267</v>
       </c>
       <c r="J4">
-        <v>10.80709166478146</v>
+        <v>6.960769600997869</v>
       </c>
       <c r="K4">
-        <v>10.88310061761984</v>
+        <v>11.78386818798887</v>
       </c>
       <c r="L4">
-        <v>10.86275973212655</v>
+        <v>6.720334909040838</v>
       </c>
       <c r="M4">
-        <v>15.43831145375423</v>
+        <v>9.333502780948812</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,40 +562,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.35501303802626</v>
+        <v>9.602345250388598</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>7.34302403596577</v>
+        <v>3.946604352957181</v>
       </c>
       <c r="E5">
-        <v>13.34936029957271</v>
+        <v>8.383207007585586</v>
       </c>
       <c r="F5">
-        <v>42.2739129238283</v>
+        <v>29.40891849620122</v>
       </c>
       <c r="G5">
-        <v>50.37557708962757</v>
+        <v>38.00876673738485</v>
       </c>
       <c r="H5">
-        <v>19.77821684413703</v>
+        <v>12.93529895980718</v>
       </c>
       <c r="I5">
-        <v>32.36942121225089</v>
+        <v>21.82343732411371</v>
       </c>
       <c r="J5">
-        <v>10.8087254093183</v>
+        <v>6.965413118512079</v>
       </c>
       <c r="K5">
-        <v>10.83561450347782</v>
+        <v>11.56294321119359</v>
       </c>
       <c r="L5">
-        <v>10.86160934632285</v>
+        <v>6.670916426931465</v>
       </c>
       <c r="M5">
-        <v>15.43643936744067</v>
+        <v>9.264632704614765</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,40 +609,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.35179985538147</v>
+        <v>9.578272820293884</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>7.34316435701419</v>
+        <v>3.945420296607701</v>
       </c>
       <c r="E6">
-        <v>13.34978281856</v>
+        <v>8.383832629667182</v>
       </c>
       <c r="F6">
-        <v>42.27730955054174</v>
+        <v>29.3994827626278</v>
       </c>
       <c r="G6">
-        <v>50.3777598719762</v>
+        <v>37.98580844575925</v>
       </c>
       <c r="H6">
-        <v>19.78038453248482</v>
+        <v>12.93588103051732</v>
       </c>
       <c r="I6">
-        <v>32.37391149382037</v>
+        <v>21.83220979135469</v>
       </c>
       <c r="J6">
-        <v>10.80900020615736</v>
+        <v>6.966192251216198</v>
       </c>
       <c r="K6">
-        <v>10.8277463379041</v>
+        <v>11.5258534147425</v>
       </c>
       <c r="L6">
-        <v>10.8614431319864</v>
+        <v>6.662722006089459</v>
       </c>
       <c r="M6">
-        <v>15.43616135523533</v>
+        <v>9.253204376585522</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,40 +656,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.37430343253134</v>
+        <v>9.74443536885177</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.342222080770841</v>
+        <v>3.9536953141708</v>
       </c>
       <c r="E7">
-        <v>13.34688629693153</v>
+        <v>8.379574987264405</v>
       </c>
       <c r="F7">
-        <v>42.25447073860976</v>
+        <v>29.46673486281362</v>
       </c>
       <c r="G7">
-        <v>50.36369485897184</v>
+        <v>38.14770447698219</v>
       </c>
       <c r="H7">
-        <v>19.76561311039325</v>
+        <v>12.93250802625716</v>
       </c>
       <c r="I7">
-        <v>32.34314459912225</v>
+        <v>21.772246642523</v>
       </c>
       <c r="J7">
-        <v>10.80711346249123</v>
+        <v>6.960831682997393</v>
       </c>
       <c r="K7">
-        <v>10.88245911406602</v>
+        <v>11.78091590216323</v>
       </c>
       <c r="L7">
-        <v>10.8627425556979</v>
+        <v>6.719667705743413</v>
       </c>
       <c r="M7">
-        <v>15.43828400588115</v>
+        <v>9.332573533640319</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,40 +703,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.47845177988268</v>
+        <v>10.45349665085278</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.33884669388628</v>
+        <v>3.991636832650679</v>
       </c>
       <c r="E8">
-        <v>13.33499956222902</v>
+        <v>8.362931380757841</v>
       </c>
       <c r="F8">
-        <v>42.17195700495407</v>
+        <v>29.80776064182186</v>
       </c>
       <c r="G8">
-        <v>50.32852828681564</v>
+        <v>38.92551619624424</v>
       </c>
       <c r="H8">
-        <v>19.70723190030655</v>
+        <v>12.93458403997684</v>
       </c>
       <c r="I8">
-        <v>32.21728926916649</v>
+        <v>21.53116458074673</v>
       </c>
       <c r="J8">
-        <v>10.79929760428302</v>
+        <v>6.938356006328762</v>
       </c>
       <c r="K8">
-        <v>11.12589594299744</v>
+        <v>12.84746445845659</v>
       </c>
       <c r="L8">
-        <v>10.87207034212793</v>
+        <v>6.972185936416604</v>
       </c>
       <c r="M8">
-        <v>15.45240597561257</v>
+        <v>9.683251846876768</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,40 +750,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.69891585913828</v>
+        <v>11.74754812452999</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>7.335023170556464</v>
+        <v>4.071498937466949</v>
       </c>
       <c r="E9">
-        <v>13.31489388731634</v>
+        <v>8.338477131007417</v>
       </c>
       <c r="F9">
-        <v>42.07596115163273</v>
+        <v>30.64212452205791</v>
       </c>
       <c r="G9">
-        <v>50.35640364301604</v>
+        <v>40.68227106776803</v>
       </c>
       <c r="H9">
-        <v>19.61723129133325</v>
+        <v>13.00397438198744</v>
       </c>
       <c r="I9">
-        <v>32.00611585293647</v>
+        <v>21.14891573658434</v>
       </c>
       <c r="J9">
-        <v>10.78579419989198</v>
+        <v>6.898575979248908</v>
       </c>
       <c r="K9">
-        <v>11.606231535824</v>
+        <v>14.72742203802163</v>
       </c>
       <c r="L9">
-        <v>10.90315130438847</v>
+        <v>7.467902504553677</v>
       </c>
       <c r="M9">
-        <v>15.49699147643647</v>
+        <v>10.36676323141611</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,40 +797,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.86966529939782</v>
+        <v>12.63343184211279</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>7.333903353939604</v>
+        <v>4.133875270975266</v>
       </c>
       <c r="E10">
-        <v>13.30206422724924</v>
+        <v>8.326009221992916</v>
       </c>
       <c r="F10">
-        <v>42.04565600431941</v>
+        <v>31.36137600735728</v>
       </c>
       <c r="G10">
-        <v>50.4359313450564</v>
+        <v>42.11610172254024</v>
       </c>
       <c r="H10">
-        <v>19.56606632663891</v>
+        <v>13.09884411328946</v>
       </c>
       <c r="I10">
-        <v>31.87268808333333</v>
+        <v>20.92937086355452</v>
       </c>
       <c r="J10">
-        <v>10.7769762500267</v>
+        <v>6.872033012698327</v>
       </c>
       <c r="K10">
-        <v>11.95725140763927</v>
+        <v>15.98118633121105</v>
       </c>
       <c r="L10">
-        <v>10.93365610604467</v>
+        <v>7.829379742027563</v>
       </c>
       <c r="M10">
-        <v>15.5398527283433</v>
+        <v>10.8618684771092</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,40 +844,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.94899900686952</v>
+        <v>13.02151568049923</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>7.333757573533589</v>
+        <v>4.16315287243827</v>
       </c>
       <c r="E11">
-        <v>13.29664700039229</v>
+        <v>8.321660355690687</v>
       </c>
       <c r="F11">
-        <v>42.04061277815598</v>
+        <v>31.71264991097297</v>
       </c>
       <c r="G11">
-        <v>50.48489786389491</v>
+        <v>42.79973560387474</v>
       </c>
       <c r="H11">
-        <v>19.54604376333945</v>
+        <v>13.15242012480497</v>
       </c>
       <c r="I11">
-        <v>31.81670545286131</v>
+        <v>20.84427920874223</v>
       </c>
       <c r="J11">
-        <v>10.77320242585289</v>
+        <v>6.860558866276495</v>
       </c>
       <c r="K11">
-        <v>12.11578565075243</v>
+        <v>16.52439470607937</v>
       </c>
       <c r="L11">
-        <v>10.94916783768992</v>
+        <v>7.992697646259023</v>
       </c>
       <c r="M11">
-        <v>15.56149921620858</v>
+        <v>11.08476156420262</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,40 +891,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.9792574998543</v>
+        <v>13.16628210131048</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>7.333754382155886</v>
+        <v>4.174378536173432</v>
       </c>
       <c r="E12">
-        <v>13.29465571652451</v>
+        <v>8.320216026957102</v>
       </c>
       <c r="F12">
-        <v>42.03995976892127</v>
+        <v>31.84920559489593</v>
       </c>
       <c r="G12">
-        <v>50.50527305285672</v>
+        <v>43.06313793932453</v>
       </c>
       <c r="H12">
-        <v>19.53892980009214</v>
+        <v>13.17428016662974</v>
       </c>
       <c r="I12">
-        <v>31.79618435934538</v>
+        <v>20.814316737016</v>
       </c>
       <c r="J12">
-        <v>10.77180739214864</v>
+        <v>6.856302138239021</v>
       </c>
       <c r="K12">
-        <v>12.17559463638238</v>
+        <v>16.72624244610697</v>
       </c>
       <c r="L12">
-        <v>10.95527384207127</v>
+        <v>8.054344017714547</v>
       </c>
       <c r="M12">
-        <v>15.57000079703749</v>
+        <v>11.16877318220496</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,40 +938,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.97273151474921</v>
+        <v>13.13520218408628</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>7.333752760641597</v>
+        <v>4.171954553838899</v>
       </c>
       <c r="E13">
-        <v>13.2950819045303</v>
+        <v>8.320517872918952</v>
       </c>
       <c r="F13">
-        <v>42.04004452615199</v>
+        <v>31.8196374807938</v>
       </c>
       <c r="G13">
-        <v>50.50080350683331</v>
+        <v>43.00620801383215</v>
       </c>
       <c r="H13">
-        <v>19.54044109252607</v>
+        <v>13.16950111538637</v>
       </c>
       <c r="I13">
-        <v>31.80057376942067</v>
+        <v>20.82066693499052</v>
       </c>
       <c r="J13">
-        <v>10.77210632596932</v>
+        <v>6.857214940103199</v>
       </c>
       <c r="K13">
-        <v>12.16272460553644</v>
+        <v>16.68294145896203</v>
       </c>
       <c r="L13">
-        <v>10.95394853509138</v>
+        <v>8.041076730403763</v>
       </c>
       <c r="M13">
-        <v>15.56815635911565</v>
+        <v>11.15069809276779</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,40 +985,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.95148417859224</v>
+        <v>13.03346986535972</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>7.333756270161943</v>
+        <v>4.16407357473102</v>
       </c>
       <c r="E14">
-        <v>13.29648197261436</v>
+        <v>8.321537396455412</v>
       </c>
       <c r="F14">
-        <v>42.04053387250989</v>
+        <v>31.72381315305943</v>
       </c>
       <c r="G14">
-        <v>50.48653745776025</v>
+        <v>42.82131509031626</v>
       </c>
       <c r="H14">
-        <v>19.54544910880804</v>
+        <v>13.15418663261347</v>
       </c>
       <c r="I14">
-        <v>31.81500357343385</v>
+        <v>20.84176808104951</v>
       </c>
       <c r="J14">
-        <v>10.77308697423572</v>
+        <v>6.860206881142525</v>
       </c>
       <c r="K14">
-        <v>12.12071100287791</v>
+        <v>16.54107776707604</v>
       </c>
       <c r="L14">
-        <v>10.94966554994633</v>
+        <v>7.997773502533204</v>
       </c>
       <c r="M14">
-        <v>15.56219256960097</v>
+        <v>11.09168143086801</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,40 +1032,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.93849711343632</v>
+        <v>12.97086917736185</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>7.33376518515476</v>
+        <v>4.159264624174965</v>
       </c>
       <c r="E15">
-        <v>13.29734737725125</v>
+        <v>8.322188642078235</v>
       </c>
       <c r="F15">
-        <v>42.04099725250686</v>
+        <v>31.66558059593381</v>
       </c>
       <c r="G15">
-        <v>50.47803753080906</v>
+        <v>42.70865260310975</v>
       </c>
       <c r="H15">
-        <v>19.54857764109424</v>
+        <v>13.14501299401469</v>
       </c>
       <c r="I15">
-        <v>31.82393059340971</v>
+        <v>20.85499160676993</v>
       </c>
       <c r="J15">
-        <v>10.77369207795954</v>
+        <v>6.862051091376724</v>
       </c>
       <c r="K15">
-        <v>12.09494549994194</v>
+        <v>16.45368188567072</v>
       </c>
       <c r="L15">
-        <v>10.94707222339933</v>
+        <v>7.971222158861253</v>
       </c>
       <c r="M15">
-        <v>15.55857909824607</v>
+        <v>11.05547925054873</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,40 +1079,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.86451216206462</v>
+        <v>12.60776512620462</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>7.333920174556679</v>
+        <v>4.131980819903097</v>
       </c>
       <c r="E16">
-        <v>13.30242667467814</v>
+        <v>8.326321067750369</v>
       </c>
       <c r="F16">
-        <v>42.04616149488412</v>
+        <v>31.33891030531949</v>
       </c>
       <c r="G16">
-        <v>50.43298811038183</v>
+        <v>42.07205704130276</v>
       </c>
       <c r="H16">
-        <v>19.56744033745207</v>
+        <v>13.09555873029316</v>
       </c>
       <c r="I16">
-        <v>31.87644157825079</v>
+        <v>20.93524049652552</v>
       </c>
       <c r="J16">
-        <v>10.7772276471159</v>
+        <v>6.872795116080391</v>
       </c>
       <c r="K16">
-        <v>11.94686259259386</v>
+        <v>15.94514433940221</v>
       </c>
       <c r="L16">
-        <v>10.93267502053167</v>
+        <v>7.818680645484266</v>
       </c>
       <c r="M16">
-        <v>15.53848094146588</v>
+        <v>10.84724982547071</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,40 +1126,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.81953411902032</v>
+        <v>12.38115431408207</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>7.334108193325973</v>
+        <v>4.115480308062323</v>
       </c>
       <c r="E17">
-        <v>13.30564987559588</v>
+        <v>8.329203299605537</v>
       </c>
       <c r="F17">
-        <v>42.0515687157755</v>
+        <v>31.14472932725924</v>
       </c>
       <c r="G17">
-        <v>50.40862335735908</v>
+        <v>41.6895707941875</v>
       </c>
       <c r="H17">
-        <v>19.57984539394979</v>
+        <v>13.06794084393729</v>
       </c>
       <c r="I17">
-        <v>31.9098631020167</v>
+        <v>20.98834883122921</v>
       </c>
       <c r="J17">
-        <v>10.77945734824166</v>
+        <v>6.879541292511362</v>
       </c>
       <c r="K17">
-        <v>11.85568160510682</v>
+        <v>15.62625526484263</v>
       </c>
       <c r="L17">
-        <v>10.92425944065688</v>
+        <v>7.724785841680274</v>
       </c>
       <c r="M17">
-        <v>15.52669861330349</v>
+        <v>10.71886664763433</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,40 +1173,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.793821424135</v>
+        <v>12.24941228204857</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>7.334250580037073</v>
+        <v>4.106073964756924</v>
       </c>
       <c r="E18">
-        <v>13.30754322768951</v>
+        <v>8.3309847846523</v>
       </c>
       <c r="F18">
-        <v>42.05550178346535</v>
+        <v>31.03530421143276</v>
       </c>
       <c r="G18">
-        <v>50.39581365815396</v>
+        <v>41.47252735397567</v>
       </c>
       <c r="H18">
-        <v>19.58728658742781</v>
+        <v>13.05303201094513</v>
       </c>
       <c r="I18">
-        <v>31.92952998941528</v>
+        <v>21.02027791461519</v>
       </c>
       <c r="J18">
-        <v>10.78076217566026</v>
+        <v>6.883477892001616</v>
       </c>
       <c r="K18">
-        <v>11.80313220500666</v>
+        <v>15.44028123037171</v>
       </c>
       <c r="L18">
-        <v>10.91957310579989</v>
+        <v>7.670676478754265</v>
       </c>
       <c r="M18">
-        <v>15.52012425667114</v>
+        <v>10.64480739836205</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,40 +1220,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.78514326153787</v>
+        <v>12.20456772813991</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>7.334304679444551</v>
+        <v>4.102903361001962</v>
       </c>
       <c r="E19">
-        <v>13.30819106492721</v>
+        <v>8.331608858688869</v>
       </c>
       <c r="F19">
-        <v>42.05697480215071</v>
+        <v>30.9986411073079</v>
       </c>
       <c r="G19">
-        <v>50.39168351144936</v>
+        <v>41.39954694391296</v>
       </c>
       <c r="H19">
-        <v>19.58985861222097</v>
+        <v>13.04814958060838</v>
       </c>
       <c r="I19">
-        <v>31.93626505531125</v>
+        <v>21.03132207301974</v>
       </c>
       <c r="J19">
-        <v>10.7812078122733</v>
+        <v>6.884820385263893</v>
       </c>
       <c r="K19">
-        <v>11.78532379318037</v>
+        <v>15.37687300868269</v>
       </c>
       <c r="L19">
-        <v>10.91801294728338</v>
+        <v>7.65233943888646</v>
       </c>
       <c r="M19">
-        <v>15.51793320836292</v>
+        <v>10.61969689514227</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,40 +1267,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.82430596781225</v>
+        <v>12.40542287228226</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>7.334084636368823</v>
+        <v>4.117228027202065</v>
       </c>
       <c r="E20">
-        <v>13.30530267835753</v>
+        <v>8.328883593896713</v>
       </c>
       <c r="F20">
-        <v>42.05090793382531</v>
+        <v>31.16516551550596</v>
       </c>
       <c r="G20">
-        <v>50.41109243058969</v>
+        <v>41.72998145274163</v>
       </c>
       <c r="H20">
-        <v>19.57849316755049</v>
+        <v>13.07077924742183</v>
       </c>
       <c r="I20">
-        <v>31.90625939844259</v>
+        <v>20.98255132413399</v>
       </c>
       <c r="J20">
-        <v>10.77921767922298</v>
+        <v>6.878817302527929</v>
       </c>
       <c r="K20">
-        <v>11.8653992336824</v>
+        <v>15.66046591114497</v>
       </c>
       <c r="L20">
-        <v>10.92513936787393</v>
+        <v>7.734792113313048</v>
       </c>
       <c r="M20">
-        <v>15.52793193295906</v>
+        <v>10.7325561220733</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,40 +1314,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.95771933624458</v>
+        <v>13.063410927744</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>7.333753829944192</v>
+        <v>4.166384561599633</v>
       </c>
       <c r="E21">
-        <v>13.29606910875269</v>
+        <v>8.321232337461744</v>
       </c>
       <c r="F21">
-        <v>42.04035603869072</v>
+        <v>31.75186254508483</v>
       </c>
       <c r="G21">
-        <v>50.49067806559429</v>
+        <v>42.87549968514515</v>
       </c>
       <c r="H21">
-        <v>19.54396542468746</v>
+        <v>13.15864161138209</v>
       </c>
       <c r="I21">
-        <v>31.81074677777295</v>
+        <v>20.83550770928099</v>
       </c>
       <c r="J21">
-        <v>10.77279801142047</v>
+        <v>6.859325662533812</v>
       </c>
       <c r="K21">
-        <v>12.13305797056808</v>
+        <v>16.58285073210693</v>
       </c>
       <c r="L21">
-        <v>10.95091729409791</v>
+        <v>8.010498367210284</v>
       </c>
       <c r="M21">
-        <v>15.56393605109809</v>
+        <v>11.10902714369428</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,40 +1361,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.04616445847061</v>
+        <v>13.4806526102118</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>7.333840667593829</v>
+        <v>4.199325796047492</v>
       </c>
       <c r="E22">
-        <v>13.29038468926479</v>
+        <v>8.317418796910236</v>
       </c>
       <c r="F22">
-        <v>42.04078438082464</v>
+        <v>32.15594610643264</v>
       </c>
       <c r="G22">
-        <v>50.55336954160259</v>
+        <v>43.65054855093785</v>
       </c>
       <c r="H22">
-        <v>19.52412840636001</v>
+        <v>13.2252625016726</v>
       </c>
       <c r="I22">
-        <v>31.75227767792825</v>
+        <v>20.75264815994683</v>
       </c>
       <c r="J22">
-        <v>10.76880069445235</v>
+        <v>6.847102457124561</v>
       </c>
       <c r="K22">
-        <v>12.3066542518692</v>
+        <v>17.16324906693279</v>
       </c>
       <c r="L22">
-        <v>10.96911565958684</v>
+        <v>8.189518013035631</v>
       </c>
       <c r="M22">
-        <v>15.58923959689114</v>
+        <v>11.35276026615732</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,40 +1408,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.99885243406554</v>
+        <v>13.25914541982299</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>7.33376668463165</v>
+        <v>4.181666560966849</v>
       </c>
       <c r="E23">
-        <v>13.29338657379081</v>
+        <v>8.319341123400957</v>
       </c>
       <c r="F23">
-        <v>42.0398858878747</v>
+        <v>31.93836644986062</v>
       </c>
       <c r="G23">
-        <v>50.51893552194043</v>
+        <v>43.23447001799711</v>
       </c>
       <c r="H23">
-        <v>19.53446598705193</v>
+        <v>13.18883940790132</v>
       </c>
       <c r="I23">
-        <v>31.78312182023827</v>
+        <v>20.79561318769701</v>
       </c>
       <c r="J23">
-        <v>10.77091603232883</v>
+        <v>6.853578299056548</v>
       </c>
       <c r="K23">
-        <v>12.21414370343761</v>
+        <v>16.85551432414587</v>
       </c>
       <c r="L23">
-        <v>10.95928029237716</v>
+        <v>8.094089695186016</v>
       </c>
       <c r="M23">
-        <v>15.57557394290199</v>
+        <v>11.22290379920368</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,40 +1455,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.8221481592094</v>
+        <v>12.39445560226315</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>7.334095179655943</v>
+        <v>4.116437634805686</v>
       </c>
       <c r="E24">
-        <v>13.30545952073745</v>
+        <v>8.329027746118678</v>
       </c>
       <c r="F24">
-        <v>42.05120410535352</v>
+        <v>31.15591943006289</v>
       </c>
       <c r="G24">
-        <v>50.40997243058813</v>
+        <v>41.71170290841886</v>
       </c>
       <c r="H24">
-        <v>19.57910354545619</v>
+        <v>13.06949299237122</v>
       </c>
       <c r="I24">
-        <v>31.90788722358999</v>
+        <v>20.98516803769229</v>
       </c>
       <c r="J24">
-        <v>10.779325962119</v>
+        <v>6.879144437471836</v>
       </c>
       <c r="K24">
-        <v>11.86100628864924</v>
+        <v>15.64500750597661</v>
       </c>
       <c r="L24">
-        <v>10.92474107940728</v>
+        <v>7.730268673642278</v>
       </c>
       <c r="M24">
-        <v>15.52737372750199</v>
+        <v>10.72636788505311</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,40 +1502,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.63765016994557</v>
+        <v>11.40851069743784</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>7.335759783825177</v>
+        <v>4.049273768350001</v>
       </c>
       <c r="E25">
-        <v>13.31999116190766</v>
+        <v>8.344167149450733</v>
       </c>
       <c r="F25">
-        <v>42.0948718645155</v>
+        <v>30.39810214625627</v>
       </c>
       <c r="G25">
-        <v>50.33848699148133</v>
+        <v>40.18198607611598</v>
       </c>
       <c r="H25">
-        <v>19.63895401365242</v>
+        <v>12.97779186832853</v>
       </c>
       <c r="I25">
-        <v>32.05942948380078</v>
+        <v>21.24203100916003</v>
       </c>
       <c r="J25">
-        <v>10.78925291199823</v>
+        <v>6.908871716596559</v>
       </c>
       <c r="K25">
-        <v>11.47635840382413</v>
+        <v>14.24136901184612</v>
       </c>
       <c r="L25">
-        <v>10.89338621824158</v>
+        <v>7.334075514314148</v>
       </c>
       <c r="M25">
-        <v>15.483140474173</v>
+        <v>10.18279644248786</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>10.63937281180172</v>
+        <v>24.12044515631421</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>4.002274122644129</v>
+        <v>3.637776658024775</v>
       </c>
       <c r="E2">
-        <v>8.358958553851782</v>
+        <v>27.74604935600095</v>
       </c>
       <c r="F2">
-        <v>29.91115456849305</v>
+        <v>16.18695785416906</v>
       </c>
       <c r="G2">
-        <v>39.15182214228168</v>
+        <v>20.85820730233009</v>
       </c>
       <c r="H2">
-        <v>12.93941723073869</v>
+        <v>1.987745055007106</v>
       </c>
       <c r="I2">
-        <v>21.47175800452453</v>
+        <v>4.012966389975869</v>
       </c>
       <c r="J2">
-        <v>6.932554840264412</v>
+        <v>6.830059442941158</v>
       </c>
       <c r="K2">
-        <v>13.12209548746736</v>
+        <v>21.92649048439283</v>
       </c>
       <c r="L2">
-        <v>7.040765941917375</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.778170173157843</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>13.12869275585989</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>11.65208397334327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>10.09315644301278</v>
+        <v>22.58125639228392</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.97182827958334</v>
+        <v>3.447490930243013</v>
       </c>
       <c r="E3">
-        <v>8.371088600038423</v>
+        <v>26.43453969573395</v>
       </c>
       <c r="F3">
-        <v>29.62370450549106</v>
+        <v>15.32764094734752</v>
       </c>
       <c r="G3">
-        <v>38.51298076132865</v>
+        <v>19.50506867455723</v>
       </c>
       <c r="H3">
-        <v>12.9302463196729</v>
+        <v>2.189909489646952</v>
       </c>
       <c r="I3">
-        <v>21.65075948281349</v>
+        <v>4.147694383756559</v>
       </c>
       <c r="J3">
-        <v>6.949703787099354</v>
+        <v>6.718814895201965</v>
       </c>
       <c r="K3">
-        <v>12.30951994981576</v>
+        <v>21.27418717614757</v>
       </c>
       <c r="L3">
-        <v>6.841995202173182</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.502697676760816</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>12.32478106316915</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>11.1922849651465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>9.746366998262801</v>
+        <v>21.57898923767505</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.953792907668062</v>
+        <v>3.325132867186389</v>
       </c>
       <c r="E4">
-        <v>8.379526320689255</v>
+        <v>25.60358744463461</v>
       </c>
       <c r="F4">
-        <v>29.4675456641181</v>
+        <v>14.78881642181696</v>
       </c>
       <c r="G4">
-        <v>38.14963330226003</v>
+        <v>18.6444306489413</v>
       </c>
       <c r="H4">
-        <v>12.93247763315853</v>
+        <v>2.317435049731873</v>
       </c>
       <c r="I4">
-        <v>21.77155761005267</v>
+        <v>4.232882894872548</v>
       </c>
       <c r="J4">
-        <v>6.960769600997869</v>
+        <v>6.655077586873401</v>
       </c>
       <c r="K4">
-        <v>11.78386818798887</v>
+        <v>20.8830783174385</v>
       </c>
       <c r="L4">
-        <v>6.720334909040838</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.333502780948812</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>11.80616305278391</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.91149859026125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>9.602345250388598</v>
+        <v>21.15619156701317</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.946604352957181</v>
+        <v>3.27493149807497</v>
       </c>
       <c r="E5">
-        <v>8.383207007585586</v>
+        <v>25.28584812471789</v>
       </c>
       <c r="F5">
-        <v>29.40891849620122</v>
+        <v>14.56104250638718</v>
       </c>
       <c r="G5">
-        <v>38.00876673738485</v>
+        <v>18.27639855468024</v>
       </c>
       <c r="H5">
-        <v>12.93529895980718</v>
+        <v>2.370089307199316</v>
       </c>
       <c r="I5">
-        <v>21.82343732411371</v>
+        <v>4.270323891778022</v>
       </c>
       <c r="J5">
-        <v>6.965413118512079</v>
+        <v>6.62825492484562</v>
       </c>
       <c r="K5">
-        <v>11.56294321119359</v>
+        <v>20.75096055031529</v>
       </c>
       <c r="L5">
-        <v>6.670916426931465</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.264632704614765</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>11.59678451363353</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.79280420060988</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>9.578272820293884</v>
+        <v>21.08514371244515</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.945420296607701</v>
+        <v>3.267765657368218</v>
       </c>
       <c r="E6">
-        <v>8.383832629667182</v>
+        <v>25.26577927428769</v>
       </c>
       <c r="F6">
-        <v>29.3994827626278</v>
+        <v>14.51610151784507</v>
       </c>
       <c r="G6">
-        <v>37.98580844575925</v>
+        <v>18.20246519721999</v>
       </c>
       <c r="H6">
-        <v>12.93588103051732</v>
+        <v>2.37865763770125</v>
       </c>
       <c r="I6">
-        <v>21.83220979135469</v>
+        <v>4.279270751517511</v>
       </c>
       <c r="J6">
-        <v>6.966192251216198</v>
+        <v>6.621427927826049</v>
       </c>
       <c r="K6">
-        <v>11.5258534147425</v>
+        <v>20.7594591988378</v>
       </c>
       <c r="L6">
-        <v>6.662722006089459</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.253204376585522</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>11.5716622279698</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.76721716600576</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>9.74443536885177</v>
+        <v>21.57340392465791</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.9536953141708</v>
+        <v>3.327820471884603</v>
       </c>
       <c r="E7">
-        <v>8.379574987264405</v>
+        <v>25.68821790159317</v>
       </c>
       <c r="F7">
-        <v>29.46673486281362</v>
+        <v>14.76710800809342</v>
       </c>
       <c r="G7">
-        <v>38.14770447698219</v>
+        <v>18.60654058454622</v>
       </c>
       <c r="H7">
-        <v>12.93250802625716</v>
+        <v>2.317490205045582</v>
       </c>
       <c r="I7">
-        <v>21.772246642523</v>
+        <v>4.240449802822614</v>
       </c>
       <c r="J7">
-        <v>6.960831682997393</v>
+        <v>6.648097162213454</v>
       </c>
       <c r="K7">
-        <v>11.78091590216323</v>
+        <v>20.96356823208367</v>
       </c>
       <c r="L7">
-        <v>6.719667705743413</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.332573533640319</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>11.8301212096969</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.89399728570798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>10.45349665085278</v>
+        <v>23.6016285227697</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.991636832650679</v>
+        <v>3.577513849905874</v>
       </c>
       <c r="E8">
-        <v>8.362931380757841</v>
+        <v>27.4109951612661</v>
       </c>
       <c r="F8">
-        <v>29.80776064182186</v>
+        <v>15.87033162708013</v>
       </c>
       <c r="G8">
-        <v>38.92551619624424</v>
+        <v>20.35828146549436</v>
       </c>
       <c r="H8">
-        <v>12.93458403997684</v>
+        <v>2.055763685893472</v>
       </c>
       <c r="I8">
-        <v>21.53116458074673</v>
+        <v>4.067693340998129</v>
       </c>
       <c r="J8">
-        <v>6.938356006328762</v>
+        <v>6.782276370132605</v>
       </c>
       <c r="K8">
-        <v>12.84746445845659</v>
+        <v>21.80667579592065</v>
       </c>
       <c r="L8">
-        <v>6.972185936416604</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.683251846876768</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>12.88957774191854</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>11.47351722173063</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>11.74754812452999</v>
+        <v>27.1260046968414</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.071498937466949</v>
+        <v>4.016942837137015</v>
       </c>
       <c r="E9">
-        <v>8.338477131007417</v>
+        <v>30.42498915979618</v>
       </c>
       <c r="F9">
-        <v>30.64212452205791</v>
+        <v>17.96319741385914</v>
       </c>
       <c r="G9">
-        <v>40.68227106776803</v>
+        <v>23.73718058205372</v>
       </c>
       <c r="H9">
-        <v>13.00397438198744</v>
+        <v>1.570089850051372</v>
       </c>
       <c r="I9">
-        <v>21.14891573658434</v>
+        <v>3.736837756061337</v>
       </c>
       <c r="J9">
-        <v>6.898575979248908</v>
+        <v>7.092884044184389</v>
       </c>
       <c r="K9">
-        <v>14.72742203802163</v>
+        <v>23.38183177175553</v>
       </c>
       <c r="L9">
-        <v>7.467902504553677</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.36676323141611</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>14.73036953992918</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>12.64109957725054</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>12.63343184211279</v>
+        <v>29.44127456571255</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.133875270975266</v>
+        <v>4.32956467846857</v>
       </c>
       <c r="E10">
-        <v>8.326009221992916</v>
+        <v>32.97572859411493</v>
       </c>
       <c r="F10">
-        <v>31.36137600735728</v>
+        <v>19.43296829818084</v>
       </c>
       <c r="G10">
-        <v>42.11610172254024</v>
+        <v>25.90855941744183</v>
       </c>
       <c r="H10">
-        <v>13.09884411328946</v>
+        <v>1.883989280821739</v>
       </c>
       <c r="I10">
-        <v>20.92937086355452</v>
+        <v>3.510729410601637</v>
       </c>
       <c r="J10">
-        <v>6.872033012698327</v>
+        <v>7.306716569869115</v>
       </c>
       <c r="K10">
-        <v>15.98118633121105</v>
+        <v>24.90448165569068</v>
       </c>
       <c r="L10">
-        <v>7.829379742027563</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>10.8618684771092</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>15.88647940770398</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>13.43229850094079</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.02151568049923</v>
+        <v>30.43577797230316</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.16315287243827</v>
+        <v>4.611952312437837</v>
       </c>
       <c r="E11">
-        <v>8.321660355690687</v>
+        <v>38.11747689161739</v>
       </c>
       <c r="F11">
-        <v>31.71264991097297</v>
+        <v>19.4554663498705</v>
       </c>
       <c r="G11">
-        <v>42.79973560387474</v>
+        <v>25.67913674686575</v>
       </c>
       <c r="H11">
-        <v>13.15242012480497</v>
+        <v>2.851680427405723</v>
       </c>
       <c r="I11">
-        <v>20.84427920874223</v>
+        <v>3.431778772989983</v>
       </c>
       <c r="J11">
-        <v>6.860558866276495</v>
+        <v>7.111731831213204</v>
       </c>
       <c r="K11">
-        <v>16.52439470607937</v>
+        <v>28.37678390445623</v>
       </c>
       <c r="L11">
-        <v>7.992697646259023</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.08476156420262</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>15.67573829418524</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>13.35332819458532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.16628210131048</v>
+        <v>30.80378611291781</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.174378536173432</v>
+        <v>4.784372186575355</v>
       </c>
       <c r="E12">
-        <v>8.320216026957102</v>
+        <v>41.93987297283797</v>
       </c>
       <c r="F12">
-        <v>31.84920559489593</v>
+        <v>19.16552932323877</v>
       </c>
       <c r="G12">
-        <v>43.06313793932453</v>
+        <v>25.08398939912387</v>
       </c>
       <c r="H12">
-        <v>13.17428016662974</v>
+        <v>4.155845271023454</v>
       </c>
       <c r="I12">
-        <v>20.814316737016</v>
+        <v>3.392099085173302</v>
       </c>
       <c r="J12">
-        <v>6.856302138239021</v>
+        <v>6.902949543116044</v>
       </c>
       <c r="K12">
-        <v>16.72624244610697</v>
+        <v>30.97150420610817</v>
       </c>
       <c r="L12">
-        <v>8.054344017714547</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.16877318220496</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>15.23780091459868</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>13.07481719839459</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.13520218408628</v>
+        <v>30.72476287440151</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.171954553838899</v>
+        <v>4.891542387858501</v>
       </c>
       <c r="E13">
-        <v>8.320517872918952</v>
+        <v>45.17656252288547</v>
       </c>
       <c r="F13">
-        <v>31.8196374807938</v>
+        <v>18.5766435693543</v>
       </c>
       <c r="G13">
-        <v>43.00620801383215</v>
+        <v>24.09696183708854</v>
       </c>
       <c r="H13">
-        <v>13.16950111538637</v>
+        <v>5.502033700080388</v>
       </c>
       <c r="I13">
-        <v>20.82066693499052</v>
+        <v>3.392701682851169</v>
       </c>
       <c r="J13">
-        <v>6.857214940103199</v>
+        <v>6.655091951350518</v>
       </c>
       <c r="K13">
-        <v>16.68294145896203</v>
+        <v>33.19027268335134</v>
       </c>
       <c r="L13">
-        <v>8.041076730403763</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.15069809276779</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>14.6072920045504</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>12.58990278983017</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.03346986535972</v>
+        <v>30.46584906149069</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.16407357473102</v>
+        <v>4.939377147062043</v>
       </c>
       <c r="E14">
-        <v>8.321537396455412</v>
+        <v>47.24738592096019</v>
       </c>
       <c r="F14">
-        <v>31.72381315305943</v>
+        <v>18.01423799740071</v>
       </c>
       <c r="G14">
-        <v>42.82131509031626</v>
+        <v>23.20350124424025</v>
       </c>
       <c r="H14">
-        <v>13.15418663261347</v>
+        <v>6.460471148199383</v>
       </c>
       <c r="I14">
-        <v>20.84176808104951</v>
+        <v>3.41323474898092</v>
       </c>
       <c r="J14">
-        <v>6.860206881142525</v>
+        <v>6.459758073989409</v>
       </c>
       <c r="K14">
-        <v>16.54107776707604</v>
+        <v>34.62267248039976</v>
       </c>
       <c r="L14">
-        <v>7.997773502533204</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.09168143086801</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>14.07656024792719</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>12.14509894556884</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.97086917736185</v>
+        <v>30.30620052555158</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.159264624174965</v>
+        <v>4.938193966290426</v>
       </c>
       <c r="E15">
-        <v>8.322188642078235</v>
+        <v>47.65498539711448</v>
       </c>
       <c r="F15">
-        <v>31.66558059593381</v>
+        <v>17.80386944709923</v>
       </c>
       <c r="G15">
-        <v>42.70865260310975</v>
+        <v>22.88524501915916</v>
       </c>
       <c r="H15">
-        <v>13.14501299401469</v>
+        <v>6.677931523401877</v>
       </c>
       <c r="I15">
-        <v>20.85499160676993</v>
+        <v>3.431293052254015</v>
       </c>
       <c r="J15">
-        <v>6.862051091376724</v>
+        <v>6.402056344834989</v>
       </c>
       <c r="K15">
-        <v>16.45368188567072</v>
+        <v>34.91775870722719</v>
       </c>
       <c r="L15">
-        <v>7.971222158861253</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.05547925054873</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>13.91224778798552</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>11.98403050548631</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.60776512620462</v>
+        <v>29.37499162805866</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.131980819903097</v>
+        <v>4.798415375164955</v>
       </c>
       <c r="E16">
-        <v>8.326321067750369</v>
+        <v>46.23981112905736</v>
       </c>
       <c r="F16">
-        <v>31.33891030531949</v>
+        <v>17.16854374724931</v>
       </c>
       <c r="G16">
-        <v>42.07205704130276</v>
+        <v>22.03486794074278</v>
       </c>
       <c r="H16">
-        <v>13.09555873029316</v>
+        <v>6.453873505285006</v>
       </c>
       <c r="I16">
-        <v>20.93524049652552</v>
+        <v>3.535447608030257</v>
       </c>
       <c r="J16">
-        <v>6.872795116080391</v>
+        <v>6.34013128113372</v>
       </c>
       <c r="K16">
-        <v>15.94514433940221</v>
+        <v>33.97630794028355</v>
       </c>
       <c r="L16">
-        <v>7.818680645484266</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>10.84724982547071</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>13.5320775911385</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>11.53117433973474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.38115431408207</v>
+        <v>28.78900574344622</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.115480308062323</v>
+        <v>4.662057643672552</v>
       </c>
       <c r="E17">
-        <v>8.329203299605537</v>
+        <v>43.96715863439855</v>
       </c>
       <c r="F17">
-        <v>31.14472932725924</v>
+        <v>16.99398566945956</v>
       </c>
       <c r="G17">
-        <v>41.6895707941875</v>
+        <v>21.8844484460811</v>
       </c>
       <c r="H17">
-        <v>13.06794084393729</v>
+        <v>5.713176799764861</v>
       </c>
       <c r="I17">
-        <v>20.98834883122921</v>
+        <v>3.604765353157147</v>
       </c>
       <c r="J17">
-        <v>6.879541292511362</v>
+        <v>6.401588230786542</v>
       </c>
       <c r="K17">
-        <v>15.62625526484263</v>
+        <v>32.4491249704944</v>
       </c>
       <c r="L17">
-        <v>7.724785841680274</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.71886664763433</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>13.53250506603266</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>11.43249311414757</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.24941228204857</v>
+        <v>28.44667931901549</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.106073964756924</v>
+        <v>4.512784918298845</v>
       </c>
       <c r="E18">
-        <v>8.3309847846523</v>
+        <v>40.67034562013578</v>
       </c>
       <c r="F18">
-        <v>31.03530421143276</v>
+        <v>17.21907947886843</v>
       </c>
       <c r="G18">
-        <v>41.47252735397567</v>
+        <v>22.35856737624289</v>
       </c>
       <c r="H18">
-        <v>13.05303201094513</v>
+        <v>4.453479539271432</v>
       </c>
       <c r="I18">
-        <v>21.02027791461519</v>
+        <v>3.640654806898841</v>
       </c>
       <c r="J18">
-        <v>6.883477892001616</v>
+        <v>6.576769507182134</v>
       </c>
       <c r="K18">
-        <v>15.44028123037171</v>
+        <v>30.20504234429526</v>
       </c>
       <c r="L18">
-        <v>7.670676478754265</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.64480739836205</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>13.84988523762365</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>11.66183717430523</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.20456772813991</v>
+        <v>28.32971740139187</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.102903361001962</v>
+        <v>4.372397278470448</v>
       </c>
       <c r="E19">
-        <v>8.331608858688869</v>
+        <v>37.04895889222507</v>
       </c>
       <c r="F19">
-        <v>30.9986411073079</v>
+        <v>17.72022198237878</v>
       </c>
       <c r="G19">
-        <v>41.39954694391296</v>
+        <v>23.25190677597383</v>
       </c>
       <c r="H19">
-        <v>13.04814958060838</v>
+        <v>2.952130582375999</v>
       </c>
       <c r="I19">
-        <v>21.03132207301974</v>
+        <v>3.656451997126259</v>
       </c>
       <c r="J19">
-        <v>6.884820385263893</v>
+        <v>6.81385375454681</v>
       </c>
       <c r="K19">
-        <v>15.37687300868269</v>
+        <v>27.7831038208634</v>
       </c>
       <c r="L19">
-        <v>7.65233943888646</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.61969689514227</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>14.43518760211173</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12.17325826031222</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.40542287228226</v>
+        <v>28.85170114371165</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.117228027202065</v>
+        <v>4.258827761667138</v>
       </c>
       <c r="E20">
-        <v>8.328883593896713</v>
+        <v>32.57162878783842</v>
       </c>
       <c r="F20">
-        <v>31.16516551550596</v>
+        <v>18.97098130762629</v>
       </c>
       <c r="G20">
-        <v>41.72998145274163</v>
+        <v>25.27061447832419</v>
       </c>
       <c r="H20">
-        <v>13.07077924742183</v>
+        <v>1.798790145589821</v>
       </c>
       <c r="I20">
-        <v>20.98255132413399</v>
+        <v>3.5922257999545</v>
       </c>
       <c r="J20">
-        <v>6.878817302527929</v>
+        <v>7.229358563399208</v>
       </c>
       <c r="K20">
-        <v>15.66046591114497</v>
+        <v>24.7555942440467</v>
       </c>
       <c r="L20">
-        <v>7.734792113313048</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.7325561220733</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>15.65400350075197</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>13.16809988147968</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.063410927744</v>
+        <v>30.542130079985</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.166384561599633</v>
+        <v>4.461683219127441</v>
       </c>
       <c r="E21">
-        <v>8.321232337461744</v>
+        <v>33.72595661859727</v>
       </c>
       <c r="F21">
-        <v>31.75186254508483</v>
+        <v>20.30277958491425</v>
       </c>
       <c r="G21">
-        <v>42.87549968514515</v>
+        <v>27.11092349099807</v>
       </c>
       <c r="H21">
-        <v>13.15864161138209</v>
+        <v>2.05338282612308</v>
       </c>
       <c r="I21">
-        <v>20.83550770928099</v>
+        <v>3.41493513935752</v>
       </c>
       <c r="J21">
-        <v>6.859325662533812</v>
+        <v>7.456176117734572</v>
       </c>
       <c r="K21">
-        <v>16.58285073210693</v>
+        <v>25.40848906429579</v>
       </c>
       <c r="L21">
-        <v>8.010498367210284</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.10902714369428</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>16.61753910155857</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>14.0637738705962</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.4806526102118</v>
+        <v>31.59790357499493</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.199325796047492</v>
+        <v>4.594304998439632</v>
       </c>
       <c r="E22">
-        <v>8.317418796910236</v>
+        <v>34.59283880767536</v>
       </c>
       <c r="F22">
-        <v>32.15594610643264</v>
+        <v>21.12095624536297</v>
       </c>
       <c r="G22">
-        <v>43.65054855093785</v>
+        <v>28.23480497942355</v>
       </c>
       <c r="H22">
-        <v>13.2252625016726</v>
+        <v>2.214317866963506</v>
       </c>
       <c r="I22">
-        <v>20.75264815994683</v>
+        <v>3.2924899806674</v>
       </c>
       <c r="J22">
-        <v>6.847102457124561</v>
+        <v>7.598159738382073</v>
       </c>
       <c r="K22">
-        <v>17.16324906693279</v>
+        <v>25.89794397073523</v>
       </c>
       <c r="L22">
-        <v>8.189518013035631</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.35276026615732</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>17.15394512516484</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>14.65398846696</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.25914541982299</v>
+        <v>31.03889667327884</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.181666560966849</v>
+        <v>4.520947481353803</v>
       </c>
       <c r="E23">
-        <v>8.319341123400957</v>
+        <v>34.04978851643065</v>
       </c>
       <c r="F23">
-        <v>31.93836644986062</v>
+        <v>20.70128050358269</v>
       </c>
       <c r="G23">
-        <v>43.23447001799711</v>
+        <v>27.66324554913513</v>
       </c>
       <c r="H23">
-        <v>13.18883940790132</v>
+        <v>2.127431755410697</v>
       </c>
       <c r="I23">
-        <v>20.79561318769701</v>
+        <v>3.348710910101964</v>
       </c>
       <c r="J23">
-        <v>6.853578299056548</v>
+        <v>7.528599383819278</v>
       </c>
       <c r="K23">
-        <v>16.85551432414587</v>
+        <v>25.54958605235898</v>
       </c>
       <c r="L23">
-        <v>8.094089695186016</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.22290379920368</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>16.84595545425307</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>14.35312939586669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.39445560226315</v>
+        <v>28.82317017307441</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.116437634805686</v>
+        <v>4.237199863646837</v>
       </c>
       <c r="E24">
-        <v>8.329027746118678</v>
+        <v>32.06004531561047</v>
       </c>
       <c r="F24">
-        <v>31.15591943006289</v>
+        <v>19.03697321640506</v>
       </c>
       <c r="G24">
-        <v>41.71170290841886</v>
+        <v>25.39244626388457</v>
       </c>
       <c r="H24">
-        <v>13.06949299237122</v>
+        <v>1.795724695266629</v>
       </c>
       <c r="I24">
-        <v>20.98516803769229</v>
+        <v>3.579663297426678</v>
       </c>
       <c r="J24">
-        <v>6.879144437471836</v>
+        <v>7.262762129575346</v>
       </c>
       <c r="K24">
-        <v>15.64500750597661</v>
+        <v>24.367935435989</v>
       </c>
       <c r="L24">
-        <v>7.730268673642278</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.72636788505311</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>15.66870866442502</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>13.23828827835536</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>11.40851069743784</v>
+        <v>26.22088230672881</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>4.049273768350001</v>
+        <v>3.908231833481927</v>
       </c>
       <c r="E25">
-        <v>8.344167149450733</v>
+        <v>29.77641117141743</v>
       </c>
       <c r="F25">
-        <v>30.39810214625627</v>
+        <v>17.38118899469211</v>
       </c>
       <c r="G25">
-        <v>40.18198607611598</v>
+        <v>22.79957284128553</v>
       </c>
       <c r="H25">
-        <v>12.97779186832853</v>
+        <v>1.697205712325725</v>
       </c>
       <c r="I25">
-        <v>21.24203100916003</v>
+        <v>3.836737675171733</v>
       </c>
       <c r="J25">
-        <v>6.908871716596559</v>
+        <v>6.993992984639321</v>
       </c>
       <c r="K25">
-        <v>14.24136901184612</v>
+        <v>23.09161229634601</v>
       </c>
       <c r="L25">
-        <v>7.334075514314148</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.18279644248786</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>14.29422804251403</v>
       </c>
       <c r="O25">
         <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>12.30085983715555</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_14/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.12044515631421</v>
+        <v>24.08476759803764</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>3.637776658024775</v>
+        <v>3.523018080996465</v>
       </c>
       <c r="E2">
-        <v>27.74604935600095</v>
+        <v>23.51805381353701</v>
       </c>
       <c r="F2">
-        <v>16.18695785416906</v>
+        <v>17.04873787439086</v>
       </c>
       <c r="G2">
-        <v>20.85820730233009</v>
+        <v>22.36022917532679</v>
       </c>
       <c r="H2">
-        <v>1.987745055007106</v>
+        <v>1.861322517327579</v>
       </c>
       <c r="I2">
-        <v>4.012966389975869</v>
+        <v>3.744099098987788</v>
       </c>
       <c r="J2">
-        <v>6.830059442941158</v>
+        <v>8.027265183200486</v>
       </c>
       <c r="K2">
-        <v>21.92649048439283</v>
+        <v>18.0214977992203</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>13.21324318275852</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>13.50091268266275</v>
       </c>
       <c r="N2">
-        <v>13.12869275585989</v>
+        <v>0</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>12.00864230576839</v>
       </c>
       <c r="Q2">
-        <v>11.65208397334327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>12.44070396625338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.58125639228392</v>
+        <v>22.53302348330043</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>3.447490930243013</v>
+        <v>3.339640381851666</v>
       </c>
       <c r="E3">
-        <v>26.43453969573395</v>
+        <v>22.42119041691129</v>
       </c>
       <c r="F3">
-        <v>15.32764094734752</v>
+        <v>16.16501700544245</v>
       </c>
       <c r="G3">
-        <v>19.50506867455723</v>
+        <v>20.81351098427492</v>
       </c>
       <c r="H3">
-        <v>2.189909489646952</v>
+        <v>2.043638959907985</v>
       </c>
       <c r="I3">
-        <v>4.147694383756559</v>
+        <v>3.856644645855119</v>
       </c>
       <c r="J3">
-        <v>6.718814895201965</v>
+        <v>7.896979192184101</v>
       </c>
       <c r="K3">
-        <v>21.27418717614757</v>
+        <v>17.6448865510724</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.69046361288889</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.44752359046261</v>
       </c>
       <c r="N3">
-        <v>12.32478106316915</v>
+        <v>0</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>11.25313861178093</v>
       </c>
       <c r="Q3">
-        <v>11.1922849651465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>11.94935774290271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.57898923767505</v>
+        <v>21.52145960368712</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>3.325132867186389</v>
+        <v>3.221816206601282</v>
       </c>
       <c r="E4">
-        <v>25.60358744463461</v>
+        <v>21.73003046450809</v>
       </c>
       <c r="F4">
-        <v>14.78881642181696</v>
+        <v>15.60851248210086</v>
       </c>
       <c r="G4">
-        <v>18.6444306489413</v>
+        <v>19.82000063743093</v>
       </c>
       <c r="H4">
-        <v>2.317435049731873</v>
+        <v>2.158816684741766</v>
       </c>
       <c r="I4">
-        <v>4.232882894872548</v>
+        <v>3.928151115827939</v>
       </c>
       <c r="J4">
-        <v>6.655077586873401</v>
+        <v>7.818252723124855</v>
       </c>
       <c r="K4">
-        <v>20.8830783174385</v>
+        <v>17.42932857017593</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.3932484222692</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>13.4245596889388</v>
       </c>
       <c r="N4">
-        <v>11.80616305278391</v>
+        <v>0</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>10.76524201733786</v>
       </c>
       <c r="Q4">
-        <v>10.91149859026125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>11.64613010995482</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.15619156701317</v>
+        <v>21.0944661187968</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>3.27493149807497</v>
+        <v>3.173300515242442</v>
       </c>
       <c r="E5">
-        <v>25.28584812471789</v>
+        <v>21.46376918420593</v>
       </c>
       <c r="F5">
-        <v>14.56104250638718</v>
+        <v>15.37400332845387</v>
       </c>
       <c r="G5">
-        <v>18.27639855468024</v>
+        <v>19.41762006359207</v>
       </c>
       <c r="H5">
-        <v>2.370089307199316</v>
+        <v>2.206553045406298</v>
       </c>
       <c r="I5">
-        <v>4.270323891778022</v>
+        <v>3.960539449116542</v>
       </c>
       <c r="J5">
-        <v>6.62825492484562</v>
+        <v>7.785041240023324</v>
       </c>
       <c r="K5">
-        <v>20.75096055031529</v>
+        <v>17.36108587652439</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.2882154933479</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>13.43133025948837</v>
       </c>
       <c r="N5">
-        <v>11.59678451363353</v>
+        <v>0</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10.56723920278035</v>
       </c>
       <c r="Q5">
-        <v>10.79280420060988</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>11.51851589086253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.08514371244515</v>
+        <v>21.02271160808677</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>3.267765657368218</v>
+        <v>3.166128451603396</v>
       </c>
       <c r="E6">
-        <v>25.26577927428769</v>
+        <v>21.44313984362562</v>
       </c>
       <c r="F6">
-        <v>14.51610151784507</v>
+        <v>15.32933773749013</v>
       </c>
       <c r="G6">
-        <v>18.20246519721999</v>
+        <v>19.34087161863925</v>
       </c>
       <c r="H6">
-        <v>2.37865763770125</v>
+        <v>2.214495173843762</v>
       </c>
       <c r="I6">
-        <v>4.279270751517511</v>
+        <v>3.96934824639418</v>
       </c>
       <c r="J6">
-        <v>6.621427927826049</v>
+        <v>7.777750806628761</v>
       </c>
       <c r="K6">
-        <v>20.7594591988378</v>
+        <v>17.36909147150051</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.28285733905708</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>13.44944664464018</v>
       </c>
       <c r="N6">
-        <v>11.5716622279698</v>
+        <v>0</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>10.54230822454005</v>
       </c>
       <c r="Q6">
-        <v>10.76721716600576</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>11.49262646377286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.57340392465791</v>
+        <v>21.51588325267929</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3.327820471884603</v>
+        <v>3.227818501449295</v>
       </c>
       <c r="E7">
-        <v>25.68821790159317</v>
+        <v>21.7811141003646</v>
       </c>
       <c r="F7">
-        <v>14.76710800809342</v>
+        <v>15.5706390557718</v>
       </c>
       <c r="G7">
-        <v>18.60654058454622</v>
+        <v>19.89551746076909</v>
       </c>
       <c r="H7">
-        <v>2.317490205045582</v>
+        <v>2.159698931295462</v>
       </c>
       <c r="I7">
-        <v>4.240449802822614</v>
+        <v>3.937630212185724</v>
       </c>
       <c r="J7">
-        <v>6.648097162213454</v>
+        <v>7.757982305611638</v>
       </c>
       <c r="K7">
-        <v>20.96356823208367</v>
+        <v>17.48467372286459</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.42722636183118</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>13.47357022164666</v>
       </c>
       <c r="N7">
-        <v>11.8301212096969</v>
+        <v>0</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>10.7819994747085</v>
       </c>
       <c r="Q7">
-        <v>10.89399728570798</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>11.61536479753585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.6016285227697</v>
+        <v>23.56203852290674</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>3.577513849905874</v>
+        <v>3.47688662632845</v>
       </c>
       <c r="E8">
-        <v>27.4109951612661</v>
+        <v>23.19509178475676</v>
       </c>
       <c r="F8">
-        <v>15.87033162708013</v>
+        <v>16.66676189074528</v>
       </c>
       <c r="G8">
-        <v>20.35828146549436</v>
+        <v>22.12987029080696</v>
       </c>
       <c r="H8">
-        <v>2.055763685893472</v>
+        <v>1.924382141755368</v>
       </c>
       <c r="I8">
-        <v>4.067693340998129</v>
+        <v>3.793958038933899</v>
       </c>
       <c r="J8">
-        <v>6.782276370132605</v>
+        <v>7.797436525478152</v>
       </c>
       <c r="K8">
-        <v>21.80667579592065</v>
+        <v>17.97198809907374</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>13.08517130166765</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.54988950592453</v>
       </c>
       <c r="N8">
-        <v>12.88957774191854</v>
+        <v>0</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>11.77177263028165</v>
       </c>
       <c r="Q8">
-        <v>11.47351722173063</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>12.20382043285599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.1260046968414</v>
+        <v>27.10952979233722</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>4.016942837137015</v>
+        <v>3.903544428761607</v>
       </c>
       <c r="E9">
-        <v>30.42498915979618</v>
+        <v>25.73918421585756</v>
       </c>
       <c r="F9">
-        <v>17.96319741385914</v>
+        <v>18.79300745366634</v>
       </c>
       <c r="G9">
-        <v>23.73718058205372</v>
+        <v>25.80871007080453</v>
       </c>
       <c r="H9">
-        <v>1.570089850051372</v>
+        <v>1.632261582755529</v>
       </c>
       <c r="I9">
-        <v>3.736837756061337</v>
+        <v>3.516263236756936</v>
       </c>
       <c r="J9">
-        <v>7.092884044184389</v>
+        <v>8.092448386041347</v>
       </c>
       <c r="K9">
-        <v>23.38183177175553</v>
+        <v>18.93553614021222</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.45851736552874</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.69045960830141</v>
       </c>
       <c r="N9">
-        <v>14.73036953992918</v>
+        <v>0</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>13.49492362925814</v>
       </c>
       <c r="Q9">
-        <v>12.64109957725054</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>13.42054143676509</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>29.44127456571255</v>
+        <v>29.43518816216033</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>4.32956467846857</v>
+        <v>4.223698259743943</v>
       </c>
       <c r="E10">
-        <v>32.97572859411493</v>
+        <v>27.82547568266561</v>
       </c>
       <c r="F10">
-        <v>19.43296829818084</v>
+        <v>20.10599298250197</v>
       </c>
       <c r="G10">
-        <v>25.90855941744183</v>
+        <v>28.63178143794157</v>
       </c>
       <c r="H10">
-        <v>1.883989280821739</v>
+        <v>1.926564908572829</v>
       </c>
       <c r="I10">
-        <v>3.510729410601637</v>
+        <v>3.331791961259084</v>
       </c>
       <c r="J10">
-        <v>7.306716569869115</v>
+        <v>7.995599990741503</v>
       </c>
       <c r="K10">
-        <v>24.90448165569068</v>
+        <v>19.95085891144707</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>15.70901487931514</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.03838211595192</v>
       </c>
       <c r="N10">
-        <v>15.88647940770398</v>
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>14.52902350849915</v>
       </c>
       <c r="Q10">
-        <v>13.43229850094079</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>14.15100966495904</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>30.43577797230316</v>
+        <v>30.43295905047765</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>4.611952312437837</v>
+        <v>4.514386681120482</v>
       </c>
       <c r="E11">
-        <v>38.11747689161739</v>
+        <v>31.81597487528646</v>
       </c>
       <c r="F11">
-        <v>19.4554663498705</v>
+        <v>20.02504976849255</v>
       </c>
       <c r="G11">
-        <v>25.67913674686575</v>
+        <v>29.66480495349135</v>
       </c>
       <c r="H11">
-        <v>2.851680427405723</v>
+        <v>2.85367999311365</v>
       </c>
       <c r="I11">
-        <v>3.431778772989983</v>
+        <v>3.285201059722862</v>
       </c>
       <c r="J11">
-        <v>7.111731831213204</v>
+        <v>7.25019890158574</v>
       </c>
       <c r="K11">
-        <v>28.37678390445623</v>
+        <v>22.31505514276533</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>17.68865460006362</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.66962052622184</v>
       </c>
       <c r="N11">
-        <v>15.67573829418524</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>14.04237953165447</v>
       </c>
       <c r="Q11">
-        <v>13.35332819458532</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>13.81696723312852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>30.80378611291781</v>
+        <v>30.80203676539276</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>4.784372186575355</v>
+        <v>4.681356724224062</v>
       </c>
       <c r="E12">
-        <v>41.93987297283797</v>
+        <v>34.80752920590654</v>
       </c>
       <c r="F12">
-        <v>19.16552932323877</v>
+        <v>19.73362425142887</v>
       </c>
       <c r="G12">
-        <v>25.08398939912387</v>
+        <v>29.71404850876958</v>
       </c>
       <c r="H12">
-        <v>4.155845271023454</v>
+        <v>4.144832360153372</v>
       </c>
       <c r="I12">
-        <v>3.392099085173302</v>
+        <v>3.262252590056097</v>
       </c>
       <c r="J12">
-        <v>6.902949543116044</v>
+        <v>6.828254719295386</v>
       </c>
       <c r="K12">
-        <v>30.97150420610817</v>
+        <v>24.08764737315573</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>19.09283615127898</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>16.95806398690735</v>
       </c>
       <c r="N12">
-        <v>15.23780091459868</v>
+        <v>0</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>13.38787667613559</v>
       </c>
       <c r="Q12">
-        <v>13.07481719839459</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>13.51099166071878</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>30.72476287440151</v>
+        <v>30.72297475287498</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>4.891542387858501</v>
+        <v>4.761484000129925</v>
       </c>
       <c r="E13">
-        <v>45.17656252288547</v>
+        <v>37.37550456689866</v>
       </c>
       <c r="F13">
-        <v>18.5766435693543</v>
+        <v>19.24794447201252</v>
       </c>
       <c r="G13">
-        <v>24.09696183708854</v>
+        <v>28.77678227022355</v>
       </c>
       <c r="H13">
-        <v>5.502033700080388</v>
+        <v>5.487682483305558</v>
       </c>
       <c r="I13">
-        <v>3.392701682851169</v>
+        <v>3.271157087089243</v>
       </c>
       <c r="J13">
-        <v>6.655091951350518</v>
+        <v>6.720773317140923</v>
       </c>
       <c r="K13">
-        <v>33.19027268335134</v>
+        <v>25.57898943055671</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>20.18442940192543</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.11845262379036</v>
       </c>
       <c r="N13">
-        <v>14.6072920045504</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>12.58712461699197</v>
       </c>
       <c r="Q13">
-        <v>12.58990278983017</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>13.10536749666054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30.46584906149069</v>
+        <v>30.46361426149626</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>4.939377147062043</v>
+        <v>4.780061181460607</v>
       </c>
       <c r="E14">
-        <v>47.24738592096019</v>
+        <v>39.03486308019443</v>
       </c>
       <c r="F14">
-        <v>18.01423799740071</v>
+        <v>18.80635474464322</v>
       </c>
       <c r="G14">
-        <v>23.20350124424025</v>
+        <v>27.66178005988927</v>
       </c>
       <c r="H14">
-        <v>6.460471148199383</v>
+        <v>6.445897850575719</v>
       </c>
       <c r="I14">
-        <v>3.41323474898092</v>
+        <v>3.294442872035231</v>
       </c>
       <c r="J14">
-        <v>6.459758073989409</v>
+        <v>6.776345607512522</v>
       </c>
       <c r="K14">
-        <v>34.62267248039976</v>
+        <v>26.52632508550363</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>20.82877444689346</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.89773308419801</v>
       </c>
       <c r="N14">
-        <v>14.07656024792719</v>
+        <v>0</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>11.97042853407853</v>
       </c>
       <c r="Q14">
-        <v>12.14509894556884</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>12.75696180561455</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>30.30620052555158</v>
+        <v>30.30362444608058</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>4.938193966290426</v>
+        <v>4.767347501696229</v>
       </c>
       <c r="E15">
-        <v>47.65498539711448</v>
+        <v>39.36683441084449</v>
       </c>
       <c r="F15">
-        <v>17.80386944709923</v>
+        <v>18.64720234411081</v>
       </c>
       <c r="G15">
-        <v>22.88524501915916</v>
+        <v>27.18017776407203</v>
       </c>
       <c r="H15">
-        <v>6.677931523401877</v>
+        <v>6.674834730551373</v>
       </c>
       <c r="I15">
-        <v>3.431293052254015</v>
+        <v>3.312005919374148</v>
       </c>
       <c r="J15">
-        <v>6.402056344834989</v>
+        <v>6.845567487540113</v>
       </c>
       <c r="K15">
-        <v>34.91775870722719</v>
+        <v>26.713899605269</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>20.93065669062955</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>19.07452644676384</v>
       </c>
       <c r="N15">
-        <v>13.91224778798552</v>
+        <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>11.79137600974308</v>
       </c>
       <c r="Q15">
-        <v>11.98403050548631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>12.63812206015262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>29.37499162805866</v>
+        <v>29.36963320413348</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>4.798415375164955</v>
+        <v>4.595487548878356</v>
       </c>
       <c r="E16">
-        <v>46.23981112905736</v>
+        <v>38.27444653449803</v>
       </c>
       <c r="F16">
-        <v>17.16854374724931</v>
+        <v>18.18317974427676</v>
       </c>
       <c r="G16">
-        <v>22.03486794074278</v>
+        <v>25.39068316009907</v>
       </c>
       <c r="H16">
-        <v>6.453873505285006</v>
+        <v>6.459540158060234</v>
       </c>
       <c r="I16">
-        <v>3.535447608030257</v>
+        <v>3.396203614623334</v>
       </c>
       <c r="J16">
-        <v>6.34013128113372</v>
+        <v>7.325463026250308</v>
       </c>
       <c r="K16">
-        <v>33.97630794028355</v>
+        <v>25.99879648620243</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>20.17775494971204</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>18.72063974924186</v>
       </c>
       <c r="N16">
-        <v>13.5320775911385</v>
+        <v>0</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>11.48713499660973</v>
       </c>
       <c r="Q16">
-        <v>11.53117433973474</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>12.42205840459799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>28.78900574344622</v>
+        <v>28.78129324262883</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>4.662057643672552</v>
+        <v>4.456483589026385</v>
       </c>
       <c r="E17">
-        <v>43.96715863439855</v>
+        <v>36.47298093120521</v>
       </c>
       <c r="F17">
-        <v>16.99398566945956</v>
+        <v>18.08147202674084</v>
       </c>
       <c r="G17">
-        <v>21.8844484460811</v>
+        <v>24.74365314674902</v>
       </c>
       <c r="H17">
-        <v>5.713176799764861</v>
+        <v>5.714321096827186</v>
       </c>
       <c r="I17">
-        <v>3.604765353157147</v>
+        <v>3.449034421359697</v>
       </c>
       <c r="J17">
-        <v>6.401588230786542</v>
+        <v>7.596829850400838</v>
       </c>
       <c r="K17">
-        <v>32.4491249704944</v>
+        <v>24.93196550932295</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>19.2467233561415</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>18.023334469501</v>
       </c>
       <c r="N17">
-        <v>13.53250506603266</v>
+        <v>0</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>11.59130104479345</v>
       </c>
       <c r="Q17">
-        <v>11.43249311414757</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>12.47952827779396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>28.44667931901549</v>
+        <v>28.43711565154316</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4.512784918298845</v>
+        <v>4.322630795981623</v>
       </c>
       <c r="E18">
-        <v>40.67034562013578</v>
+        <v>33.86000628170533</v>
       </c>
       <c r="F18">
-        <v>17.21907947886843</v>
+        <v>18.31676020636206</v>
       </c>
       <c r="G18">
-        <v>22.35856737624289</v>
+        <v>24.88278811612784</v>
       </c>
       <c r="H18">
-        <v>4.453479539271432</v>
+        <v>4.446985737218658</v>
       </c>
       <c r="I18">
-        <v>3.640654806898841</v>
+        <v>3.468143782766563</v>
       </c>
       <c r="J18">
-        <v>6.576769507182134</v>
+        <v>7.820610071124015</v>
       </c>
       <c r="K18">
-        <v>30.20504234429526</v>
+        <v>23.40857676859178</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>18.0369782195821</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.920585145715</v>
       </c>
       <c r="N18">
-        <v>13.84988523762365</v>
+        <v>0</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>12.08044042562771</v>
       </c>
       <c r="Q18">
-        <v>11.66183717430523</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>12.75437410271791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.32971740139187</v>
+        <v>28.31925982462882</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4.372397278470448</v>
+        <v>4.205988222400604</v>
       </c>
       <c r="E19">
-        <v>37.04895889222507</v>
+        <v>31.00234565239661</v>
       </c>
       <c r="F19">
-        <v>17.72022198237878</v>
+        <v>18.76014922964553</v>
       </c>
       <c r="G19">
-        <v>23.25190677597383</v>
+        <v>25.53688367823221</v>
       </c>
       <c r="H19">
-        <v>2.952130582375999</v>
+        <v>2.973355497088123</v>
       </c>
       <c r="I19">
-        <v>3.656451997126259</v>
+        <v>3.473524931985671</v>
       </c>
       <c r="J19">
-        <v>6.81385375454681</v>
+        <v>8.022677412396584</v>
       </c>
       <c r="K19">
-        <v>27.7831038208634</v>
+        <v>21.80234263730753</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>16.82282777243127</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>15.70105335555892</v>
       </c>
       <c r="N19">
-        <v>14.43518760211173</v>
+        <v>0</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>12.86824312233569</v>
       </c>
       <c r="Q19">
-        <v>12.17325826031222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>13.16845161524017</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>28.85170114371165</v>
+        <v>28.84335025934785</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.258827761667138</v>
+        <v>4.136943939827087</v>
       </c>
       <c r="E20">
-        <v>32.57162878783842</v>
+        <v>27.50660585655698</v>
       </c>
       <c r="F20">
-        <v>18.97098130762629</v>
+        <v>19.78472931324703</v>
       </c>
       <c r="G20">
-        <v>25.27061447832419</v>
+        <v>27.56118601968766</v>
       </c>
       <c r="H20">
-        <v>1.798790145589821</v>
+        <v>1.8507479478408</v>
       </c>
       <c r="I20">
-        <v>3.5922257999545</v>
+        <v>3.408400269027913</v>
       </c>
       <c r="J20">
-        <v>7.229358563399208</v>
+        <v>8.186301687200871</v>
       </c>
       <c r="K20">
-        <v>24.7555942440467</v>
+        <v>19.84347057815716</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>15.49825283584928</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.0707248212464</v>
       </c>
       <c r="N20">
-        <v>15.65400350075197</v>
+        <v>0</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>14.32037383189084</v>
       </c>
       <c r="Q20">
-        <v>13.16809988147968</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>13.97532685069154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>30.542130079985</v>
+        <v>30.53977607999144</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>4.461683219127441</v>
+        <v>4.412548036486362</v>
       </c>
       <c r="E21">
-        <v>33.72595661859727</v>
+        <v>28.3369564708424</v>
       </c>
       <c r="F21">
-        <v>20.30277958491425</v>
+        <v>20.66537369961522</v>
       </c>
       <c r="G21">
-        <v>27.11092349099807</v>
+        <v>31.27080558169759</v>
       </c>
       <c r="H21">
-        <v>2.05338282612308</v>
+        <v>2.074271179345636</v>
       </c>
       <c r="I21">
-        <v>3.41493513935752</v>
+        <v>3.262509958259454</v>
       </c>
       <c r="J21">
-        <v>7.456176117734572</v>
+        <v>7.241398728367608</v>
       </c>
       <c r="K21">
-        <v>25.40848906429579</v>
+        <v>20.3746280156929</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.27402155668699</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>14.14727444758976</v>
       </c>
       <c r="N21">
-        <v>16.61753910155857</v>
+        <v>0</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>15.19277506752276</v>
       </c>
       <c r="Q21">
-        <v>14.0637738705962</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>14.37578047001825</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31.59790357499493</v>
+        <v>31.59828765806634</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>4.594304998439632</v>
+        <v>4.594587769688349</v>
       </c>
       <c r="E22">
-        <v>34.59283880767536</v>
+        <v>28.96316999792277</v>
       </c>
       <c r="F22">
-        <v>21.12095624536297</v>
+        <v>21.23726034636854</v>
       </c>
       <c r="G22">
-        <v>28.23480497942355</v>
+        <v>33.6548868383224</v>
       </c>
       <c r="H22">
-        <v>2.214317866963506</v>
+        <v>2.214424467610025</v>
       </c>
       <c r="I22">
-        <v>3.2924899806674</v>
+        <v>3.158439458740599</v>
       </c>
       <c r="J22">
-        <v>7.598159738382073</v>
+        <v>6.593053176926007</v>
       </c>
       <c r="K22">
-        <v>25.89794397073523</v>
+        <v>20.76813855618992</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.81078312798593</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>14.23811491003002</v>
       </c>
       <c r="N22">
-        <v>17.15394512516484</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>15.66318933463576</v>
       </c>
       <c r="Q22">
-        <v>14.65398846696</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>14.7152272941131</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.03889667327884</v>
+        <v>31.03792084371241</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>4.520947481353803</v>
+        <v>4.487144294593548</v>
       </c>
       <c r="E23">
-        <v>34.04978851643065</v>
+        <v>28.58838422907369</v>
       </c>
       <c r="F23">
-        <v>20.70128050358269</v>
+        <v>20.9851068163451</v>
       </c>
       <c r="G23">
-        <v>27.66324554913513</v>
+        <v>32.21437128650653</v>
       </c>
       <c r="H23">
-        <v>2.127431755410697</v>
+        <v>2.139944805731708</v>
       </c>
       <c r="I23">
-        <v>3.348710910101964</v>
+        <v>3.202104567414711</v>
       </c>
       <c r="J23">
-        <v>7.528599383819278</v>
+        <v>7.059853816314554</v>
       </c>
       <c r="K23">
-        <v>25.54958605235898</v>
+        <v>20.48426473206521</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.46970882179318</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>14.13215962916229</v>
       </c>
       <c r="N23">
-        <v>16.84595545425307</v>
+        <v>0</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>15.40055276096121</v>
       </c>
       <c r="Q23">
-        <v>14.35312939586669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>14.56047578888344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>28.82317017307441</v>
+        <v>28.81468902985682</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>4.237199863646837</v>
+        <v>4.118429901442551</v>
       </c>
       <c r="E24">
-        <v>32.06004531561047</v>
+        <v>27.11164293719462</v>
       </c>
       <c r="F24">
-        <v>19.03697321640506</v>
+        <v>19.84346250954339</v>
       </c>
       <c r="G24">
-        <v>25.39244626388457</v>
+        <v>27.63625687391831</v>
       </c>
       <c r="H24">
-        <v>1.795724695266629</v>
+        <v>1.850847520195945</v>
       </c>
       <c r="I24">
-        <v>3.579663297426678</v>
+        <v>3.390747447029705</v>
       </c>
       <c r="J24">
-        <v>7.262762129575346</v>
+        <v>8.220684067712096</v>
       </c>
       <c r="K24">
-        <v>24.367935435989</v>
+        <v>19.58309052512259</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>15.30010518851014</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>13.87287276685034</v>
       </c>
       <c r="N24">
-        <v>15.66870866442502</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>14.36237618820476</v>
       </c>
       <c r="Q24">
-        <v>13.23828827835536</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>14.03246651585582</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.22088230672881</v>
+        <v>26.19938312688214</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>3.908231833481927</v>
+        <v>3.791795265172346</v>
       </c>
       <c r="E25">
-        <v>29.77641117141743</v>
+        <v>25.18738694037481</v>
       </c>
       <c r="F25">
-        <v>17.38118899469211</v>
+        <v>18.23418176389839</v>
       </c>
       <c r="G25">
-        <v>22.79957284128553</v>
+        <v>24.68946888198455</v>
       </c>
       <c r="H25">
-        <v>1.697205712325725</v>
+        <v>1.601721441885799</v>
       </c>
       <c r="I25">
-        <v>3.836737675171733</v>
+        <v>3.60509520943231</v>
       </c>
       <c r="J25">
-        <v>6.993992984639321</v>
+        <v>8.077869745095795</v>
       </c>
       <c r="K25">
-        <v>23.09161229634601</v>
+        <v>18.75505521002902</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.14021493719676</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>13.71646082681775</v>
       </c>
       <c r="N25">
-        <v>14.29422804251403</v>
+        <v>0</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>13.08626593205115</v>
       </c>
       <c r="Q25">
-        <v>12.30085983715555</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>13.09558675617057</v>
       </c>
     </row>
   </sheetData>
